--- a/Demo_VinylHouse.xlsx
+++ b/Demo_VinylHouse.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\LEEBAE\IOTDEV\blynk\Demo_VinylHouse_timer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A166BB3-4A7C-4DB2-A424-9F7B5441F429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9678B30-AAA7-460B-9747-1A6C9C565459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0AEB6F52-55B6-4821-9B9E-F5CDCA45F040}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0AEB6F52-55B6-4821-9B9E-F5CDCA45F040}"/>
   </bookViews>
   <sheets>
     <sheet name="비닐하우스타이머" sheetId="3" r:id="rId1"/>
-    <sheet name="기능설명" sheetId="6" r:id="rId2"/>
-    <sheet name="비닐하우스타이머소스" sheetId="5" r:id="rId3"/>
+    <sheet name="스마트폰 화면" sheetId="7" r:id="rId2"/>
+    <sheet name="기능설명" sheetId="6" r:id="rId3"/>
+    <sheet name="비닐하우스타이머소스" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="215">
   <si>
     <t>DS개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,10 +333,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OTA로 데이터가 업데이트 되었을때(개발자 설정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0 ~ 100 퍼센트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -558,16 +555,6 @@
   </si>
   <si>
     <t>측면자동개폐LED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재부팅이란: 정전이 되어 배전반의 컴퓨터가 다운되고 다시 전기 들어올때 컴퓨터가 재부팅되는것을 말한다.
-재연결이란: 어떤이유로 Blynk 서버와 연결이 끊어지고 다시 자동으로 재연결되는 것을 말한다.
-운전모드에서 자동모드는 사용자가 설정한 개폐온도,관수타이머에 의해 자동으로 실행되는 모드이고 수동모드는 스위치로 작동시킨다.
-재부팅과 재연결과 운전모드 변경은 모두 같은 초기값 구현으로 처리를 한다.
-영향:
-   자동모드에서는 환경설정값으로 다시 운전되므로 영향이 없고
-   수동모드에서는 고객이 설정한 작동 중인 스위치는 모두 강제 OFF  된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -661,12 +648,6 @@
   </si>
   <si>
     <t>체크시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배전반의 온도,습도 체크: 1분
-하우스의 온도,습도 체크: 1분
-관수타이머 체크: 2분 (NTP서버 부하 감소을 위해)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -677,10 +658,6 @@
 게
 통
 지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OTA 업데이트 알림</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1529,10 +1506,6 @@
     <t>구현</t>
   </si>
   <si>
-    <t>온도센서가 30회(약30분) 오류나면 온도센서 알람을 보낸다. 다시 리셋되고 다시 30회 오류나면 다시 보낸다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관수의 타이머가 자동으로 설정되어있을때 관수 타이머가 Start / Stop 할때 알람을 보낸다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1660,6 +1633,65 @@
   </si>
   <si>
     <t>아두이노 Mega + 이더넷은 OTA 업데이트 불가하여, 문제가 생기면 직접 노트북 가지고 가서 USB로 연결해서 업데이트을 해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">재부팅이란: 정전이 되어 배전반의 컴퓨터가 다운되고 다시 전기 들어올때 컴퓨터가 재부팅되는것을 말한다.
+재연결이란: 어떤이유로 Blynk 서버와 연결이 끊어지고 다시 자동으로 재연결되는 것을 말한다.
+운전모드에서 자동모드는 사용자가 설정한 개폐온도,관수타이머에 의해 자동으로 실행되는 모드이고 수동모드는 스위치로 작동시킨다.
+재부팅과 재연결과 운전모드 변경은 모두 같은 초기값 구현으로 처리를 한다.
+영향:
+   자동모드에서는 환경설정값으로 다시 운전되므로 영향이 없고
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수동모드에서는 고객이 설정한 작동 중인 스위치는 Sync을 맟추어야 한다.(관수릴레이,개폐릴레이)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷이 끊기면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배전반의 온도,습도 체크: 리얼타임 약 1초
+하우스의 온도,습도 체크: 리얼타임 약 1초
+관수타이머 체크: 리얼타임 약 1초 
+NTP 시간 업데이트 5분마다: 23시56분~00시 사이에 NTP 시간을 업데이트 하면 5분후에 하므로 요일체크는 최대 5분정도 늦게 체크된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초에 한 개만 받을수 있다. (웹콘솔에서 변경가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출
+고
+전
+확
+인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초마다 인터넷을 체크하다가 인터넷이 끊기면 시스탬을 재부팅한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온도센서가 30회 오류나면 온도센서오류 알람을 보내고 내용은 앱으로 리부팅을 해보라고 하는 내용이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2062,7 +2094,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2177,36 +2209,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2216,176 +2326,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2900,25 +2953,30 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1514004</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>122948</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>456729</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>27698</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="23" name="그룹 22">
+        <xdr:cNvPr id="2" name="그룹 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{218A1357-5133-BD5B-0C9B-CEC3135A2EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{477CCA7A-8FF5-4A11-9AB8-DE31B8560A09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2926,7 +2984,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5657850" y="14697075"/>
+          <a:off x="962025" y="95250"/>
           <a:ext cx="11153304" cy="7057148"/>
           <a:chOff x="4810125" y="13106400"/>
           <a:chExt cx="11153304" cy="7057148"/>
@@ -2934,10 +2992,10 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="18" name="그림 17">
+          <xdr:cNvPr id="3" name="그림 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D9EA08-5D4E-8D18-4168-F784E3D41DCF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CA5B0B2-02FC-F669-2936-185C7A95A524}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2946,7 +3004,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -2963,10 +3021,10 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="19" name="그림 18">
+          <xdr:cNvPr id="4" name="그림 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{404A37F2-AE49-74D7-7465-124F7D1C144A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83278679-9E17-B693-E29C-745AEA9148AF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2975,7 +3033,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -2992,10 +3050,10 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="20" name="그림 19">
+          <xdr:cNvPr id="5" name="그림 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EA709FC-08C6-8D6A-E07C-82318E6D45E6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{874B4992-E2CD-BA16-8C4E-E9A290692212}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3004,7 +3062,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -3344,8 +3402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836B7AA0-D363-4D21-8733-9AE4F3952C5C}">
   <dimension ref="B1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3365,74 +3423,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="69"/>
     </row>
     <row r="2" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
     </row>
     <row r="3" spans="2:14" ht="356.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
     </row>
     <row r="4" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="63" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -3441,37 +3499,37 @@
       <c r="E5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="51" t="s">
+      <c r="J5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="L5" s="69" t="s">
+      <c r="K5" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="M5" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="N5" s="51" t="s">
+      <c r="M5" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="63" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="11">
         <f>SUM(D7:D90)</f>
         <v>13</v>
@@ -3480,18 +3538,18 @@
         <f>SUM(E7:E90)</f>
         <v>20</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
     </row>
     <row r="7" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="60" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -3508,17 +3566,17 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="M7" s="39" t="s">
-        <v>75</v>
+        <v>143</v>
+      </c>
+      <c r="M7" s="55" t="s">
+        <v>74</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="63"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="6" t="s">
         <v>3</v>
       </c>
@@ -3537,114 +3595,114 @@
       <c r="L8" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="39"/>
+      <c r="M8" s="55"/>
       <c r="N8" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="63"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="61">
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40" t="s">
+      <c r="H9" s="61"/>
+      <c r="I9" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="K9" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="L9" s="70" t="s">
+      <c r="J9" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="K9" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="62" t="s">
         <v>70</v>
       </c>
       <c r="M9" s="7"/>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="54" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="63"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="70"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="62"/>
       <c r="M10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="N10" s="38"/>
+        <v>75</v>
+      </c>
+      <c r="N10" s="54"/>
     </row>
     <row r="11" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="63"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="E11" s="40"/>
+      <c r="E11" s="61"/>
       <c r="F11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="70"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="62"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="38"/>
+      <c r="N11" s="54"/>
     </row>
     <row r="12" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="63"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
       </c>
-      <c r="E12" s="40"/>
+      <c r="E12" s="61"/>
       <c r="F12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="70"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="62"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="38"/>
+      <c r="N12" s="54"/>
     </row>
     <row r="13" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="63"/>
-      <c r="C13" s="39" t="s">
+      <c r="B13" s="60"/>
+      <c r="C13" s="55" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="6">
@@ -3655,7 +3713,7 @@
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="39" t="s">
+      <c r="H13" s="55" t="s">
         <v>5</v>
       </c>
       <c r="I13" s="6" t="s">
@@ -3665,21 +3723,21 @@
         <v>43</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="M13" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="N13" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="M13" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13" s="56" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="63"/>
-      <c r="C14" s="39"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="6">
         <v>0</v>
       </c>
@@ -3688,7 +3746,7 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="39"/>
+      <c r="H14" s="55"/>
       <c r="I14" s="6" t="s">
         <v>42</v>
       </c>
@@ -3696,18 +3754,18 @@
         <v>44</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="41"/>
+        <v>72</v>
+      </c>
+      <c r="M14" s="55"/>
+      <c r="N14" s="56"/>
     </row>
     <row r="15" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="63"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D15" s="7">
         <v>1</v>
@@ -3722,7 +3780,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="3" t="s">
@@ -3730,7 +3788,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="63"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="6" t="s">
         <v>1</v>
       </c>
@@ -3749,23 +3807,23 @@
         <v>51</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L16" s="27" t="s">
         <v>70</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="63"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
@@ -3787,20 +3845,20 @@
         <v>24</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L17" s="29" t="s">
         <v>69</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="63"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
@@ -3822,20 +3880,20 @@
         <v>26</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L18" s="29" t="s">
         <v>69</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="63"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -3850,9 +3908,9 @@
       <c r="N19" s="25"/>
     </row>
     <row r="20" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="63"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7">
@@ -3862,16 +3920,16 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L20" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7" t="s">
@@ -3879,7 +3937,7 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="45" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -3888,101 +3946,101 @@
       <c r="D21" s="8">
         <v>1</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="46">
         <v>1</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42" t="s">
+      <c r="H21" s="46"/>
+      <c r="I21" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="K21" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="L21" s="71" t="s">
+      <c r="J21" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="L21" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="N21" s="42" t="s">
+      <c r="M21" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="N21" s="46" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="47"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
       </c>
-      <c r="E22" s="42"/>
+      <c r="E22" s="46"/>
       <c r="F22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
     </row>
     <row r="23" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="47"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="42"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
     </row>
     <row r="24" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="47"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
       </c>
-      <c r="E24" s="42"/>
+      <c r="E24" s="46"/>
       <c r="F24" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
     </row>
     <row r="25" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="47"/>
-      <c r="C25" s="43" t="s">
+      <c r="B25" s="45"/>
+      <c r="C25" s="47" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="9">
@@ -3991,9 +4049,9 @@
       <c r="E25" s="9">
         <v>1</v>
       </c>
-      <c r="F25" s="55"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43" t="s">
+      <c r="F25" s="51"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47" t="s">
         <v>18</v>
       </c>
       <c r="I25" s="9" t="s">
@@ -4003,30 +4061,30 @@
         <v>52</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L25" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="M25" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="N25" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="M25" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="N25" s="47" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="47"/>
-      <c r="C26" s="43"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="9">
         <v>0</v>
       </c>
       <c r="E26" s="9">
         <v>1</v>
       </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
       <c r="I26" s="9" t="s">
         <v>58</v>
       </c>
@@ -4034,18 +4092,18 @@
         <v>53</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L26" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
+        <v>72</v>
+      </c>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
     </row>
     <row r="27" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="47"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
@@ -4060,7 +4118,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M27" s="8"/>
       <c r="N27" s="8" t="s">
@@ -4068,7 +4126,7 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="47"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="9" t="s">
         <v>1</v>
       </c>
@@ -4087,23 +4145,23 @@
         <v>59</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L28" s="32" t="s">
         <v>70</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N28" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="47"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="12" t="s">
         <v>22</v>
       </c>
@@ -4125,20 +4183,20 @@
         <v>27</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L29" s="33" t="s">
         <v>69</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N29" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B30" s="47"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="12" t="s">
         <v>23</v>
       </c>
@@ -4160,20 +4218,20 @@
         <v>25</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L30" s="33" t="s">
         <v>69</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N30" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="47"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="23"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -4188,9 +4246,9 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="47"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1">
@@ -4200,16 +4258,16 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L32" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1" t="s">
@@ -4217,11 +4275,11 @@
       </c>
     </row>
     <row r="33" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="64" t="s">
-        <v>98</v>
+      <c r="B33" s="72" t="s">
+        <v>97</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16">
@@ -4231,16 +4289,16 @@
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
       <c r="I33" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L33" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M33" s="16"/>
       <c r="N33" s="16" t="s">
@@ -4248,9 +4306,9 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="65"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16">
@@ -4260,16 +4318,16 @@
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="L34" s="26" t="s">
         <v>94</v>
-      </c>
-      <c r="J34" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="K34" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="L34" s="26" t="s">
-        <v>95</v>
       </c>
       <c r="M34" s="16"/>
       <c r="N34" s="16" t="s">
@@ -4277,9 +4335,9 @@
       </c>
     </row>
     <row r="35" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B35" s="65"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16">
@@ -4289,16 +4347,16 @@
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
       <c r="I35" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L35" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M35" s="16"/>
       <c r="N35" s="16" t="s">
@@ -4306,9 +4364,9 @@
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="65"/>
+      <c r="B36" s="73"/>
       <c r="C36" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17">
@@ -4318,16 +4376,16 @@
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L36" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M36" s="17"/>
       <c r="N36" s="16" t="s">
@@ -4335,9 +4393,9 @@
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="65"/>
+      <c r="B37" s="73"/>
       <c r="C37" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="18">
@@ -4347,16 +4405,16 @@
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
       <c r="I37" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L37" s="26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M37" s="18"/>
       <c r="N37" s="18" t="s">
@@ -4364,9 +4422,9 @@
       </c>
     </row>
     <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B38" s="106"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="18" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18">
@@ -4376,16 +4434,16 @@
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
       <c r="I38" s="18" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L38" s="26" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M38" s="18"/>
       <c r="N38" s="18" t="s">
@@ -4449,128 +4507,158 @@
       <c r="N42" s="18"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="107"/>
-      <c r="C43" s="105" t="s">
-        <v>209</v>
-      </c>
-      <c r="D43" s="105" t="s">
-        <v>210</v>
-      </c>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="105"/>
-      <c r="J43" s="105"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C44" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C45" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C46" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C47" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C48" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C49" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C50" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C51" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C52" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C53" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C54" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C55" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C57" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C58" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C59" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C60" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C61" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C62" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C63" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="B7:B20"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="K9:K12"/>
     <mergeCell ref="B21:B32"/>
     <mergeCell ref="N21:N24"/>
     <mergeCell ref="C25:C26"/>
@@ -4587,36 +4675,6 @@
     <mergeCell ref="J21:J24"/>
     <mergeCell ref="L21:L24"/>
     <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="B7:B20"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="B33:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4626,11 +4684,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2424485E-3A77-49E6-A64B-D5060AC3941A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080A3F43-FFAB-474F-8627-7A9B7AE80863}">
-  <dimension ref="B1:O33"/>
+  <dimension ref="B1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:O7"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4650,527 +4724,485 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="74"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="106"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
     </row>
     <row r="3" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="94" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="75" t="s">
+      <c r="B3" s="87" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="114"/>
+    </row>
+    <row r="4" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="88"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="114"/>
+    </row>
+    <row r="5" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="88"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="114"/>
+    </row>
+    <row r="6" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="88"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="114"/>
+    </row>
+    <row r="7" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="88"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="114"/>
+    </row>
+    <row r="8" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="88"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="114"/>
+    </row>
+    <row r="9" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="88"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="113"/>
+      <c r="N9" s="113"/>
+      <c r="O9" s="114"/>
+    </row>
+    <row r="10" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="111"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="108"/>
+    </row>
+    <row r="11" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="85" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="10" t="s">
+      <c r="D11" s="96"/>
+      <c r="E11" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="101" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+    </row>
+    <row r="12" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="86"/>
+      <c r="C12" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="98"/>
+      <c r="E12" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
+    </row>
+    <row r="13" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="86"/>
+      <c r="C13" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="96"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="101"/>
+    </row>
+    <row r="14" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="86"/>
+      <c r="C14" s="98" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="98"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+    </row>
+    <row r="15" spans="2:15" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="86"/>
+      <c r="C15" s="102" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="98"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="99" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+    </row>
+    <row r="16" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="86"/>
+      <c r="C16" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="96"/>
+      <c r="E16" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="101" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+    </row>
+    <row r="17" spans="2:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="86"/>
+      <c r="C17" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="98"/>
+      <c r="E17" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+    </row>
+    <row r="18" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="86"/>
+      <c r="C18" s="96" t="s">
+        <v>208</v>
+      </c>
+      <c r="D18" s="96"/>
+      <c r="E18" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="97" t="s">
+        <v>213</v>
+      </c>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="97"/>
+      <c r="O18" s="97"/>
+    </row>
+    <row r="19" spans="2:15" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="102" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="98"/>
+      <c r="E19" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="99" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+    </row>
+    <row r="20" spans="2:15" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="88"/>
+      <c r="C20" s="98" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="98"/>
+      <c r="E20" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+    </row>
+    <row r="21" spans="2:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="88"/>
+      <c r="C21" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="D21" s="98"/>
+      <c r="E21" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="99" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="100"/>
+    </row>
+    <row r="22" spans="2:15" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="88"/>
+      <c r="C22" s="102" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="102"/>
+      <c r="E22" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+    </row>
+    <row r="23" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="89"/>
+      <c r="C23" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="98"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="99" t="s">
         <v>211</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-    </row>
-    <row r="4" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="95"/>
-      <c r="C4" s="76" t="s">
-        <v>175</v>
-      </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="78" t="s">
-        <v>178</v>
-      </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-    </row>
-    <row r="5" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="95"/>
-      <c r="C5" s="75" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-    </row>
-    <row r="6" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="95"/>
-      <c r="C6" s="76" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="78" t="s">
-        <v>135</v>
-      </c>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-    </row>
-    <row r="7" spans="2:15" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="95"/>
-      <c r="C7" s="103" t="s">
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+    </row>
+    <row r="24" spans="2:15" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="77" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-    </row>
-    <row r="8" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="95"/>
-      <c r="C8" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-    </row>
-    <row r="9" spans="2:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="95"/>
-      <c r="C9" s="76" t="s">
+      <c r="C24" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="98"/>
+      <c r="E24" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="77" t="s">
-        <v>139</v>
-      </c>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-    </row>
-    <row r="10" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="95"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-    </row>
-    <row r="11" spans="2:15" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="91" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="104" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-    </row>
-    <row r="12" spans="2:15" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="92"/>
-      <c r="C12" s="76" t="s">
+      <c r="F24" s="99" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+    </row>
+    <row r="25" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="81"/>
+      <c r="C25" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="76"/>
-      <c r="E12" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="77" t="s">
-        <v>171</v>
-      </c>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
-    </row>
-    <row r="13" spans="2:15" s="80" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="92"/>
-      <c r="C13" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13" s="77" t="s">
-        <v>155</v>
-      </c>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-    </row>
-    <row r="14" spans="2:15" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="92"/>
-      <c r="C14" s="103" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="103"/>
-      <c r="E14" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-    </row>
-    <row r="15" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="93"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-    </row>
-    <row r="16" spans="2:15" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="88" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" s="76" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-    </row>
-    <row r="17" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="89"/>
-      <c r="C17" s="76" t="s">
-        <v>146</v>
-      </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-    </row>
-    <row r="18" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="89"/>
-      <c r="C18" s="76" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18" s="77" t="s">
-        <v>173</v>
-      </c>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-    </row>
-    <row r="19" spans="2:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="89"/>
-      <c r="C19" s="76" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="76"/>
-      <c r="E19" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="F19" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-    </row>
-    <row r="20" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="89"/>
-      <c r="C20" s="76" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="78" t="s">
-        <v>174</v>
-      </c>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78"/>
-    </row>
-    <row r="21" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="89"/>
-      <c r="C21" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-    </row>
-    <row r="22" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="90"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-    </row>
-    <row r="23" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="81" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="I23" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="J23" s="75"/>
-      <c r="K23" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-    </row>
-    <row r="24" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="84"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="I24" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="J24" s="75"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="97" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="101" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="87"/>
-      <c r="E25" s="4" t="s">
-        <v>166</v>
+      <c r="D25" s="98"/>
+      <c r="E25" s="38" t="s">
+        <v>126</v>
       </c>
       <c r="F25" s="99" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="G25" s="99"/>
       <c r="H25" s="99"/>
@@ -5182,15 +5214,17 @@
       <c r="N25" s="99"/>
       <c r="O25" s="99"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="98"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F26" s="100" t="s">
-        <v>165</v>
+    <row r="26" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="81"/>
+      <c r="C26" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="98"/>
+      <c r="E26" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="99" t="s">
+        <v>214</v>
       </c>
       <c r="G26" s="99"/>
       <c r="H26" s="99"/>
@@ -5202,188 +5236,381 @@
       <c r="N26" s="99"/>
       <c r="O26" s="99"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="98"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="98"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="67"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="98"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="50"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="98"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="50"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="98"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="50"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="98"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="50"/>
-    </row>
-    <row r="33" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="79"/>
+    <row r="27" spans="2:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="81"/>
+      <c r="C27" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="98"/>
+      <c r="E27" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" s="99" t="s">
+        <v>164</v>
+      </c>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+    </row>
+    <row r="28" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="81"/>
+      <c r="C28" s="98" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="98"/>
+      <c r="E28" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
+    </row>
+    <row r="29" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="81"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+    </row>
+    <row r="30" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="82"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="101"/>
+      <c r="M30" s="101"/>
+      <c r="N30" s="101"/>
+      <c r="O30" s="101"/>
+    </row>
+    <row r="31" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="91"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I31" s="96" t="s">
+        <v>111</v>
+      </c>
+      <c r="J31" s="96"/>
+      <c r="K31" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+    </row>
+    <row r="32" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="93"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I32" s="96" t="s">
+        <v>114</v>
+      </c>
+      <c r="J32" s="96"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="78"/>
+      <c r="E33" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F33" s="104" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="104"/>
+      <c r="M33" s="104"/>
+      <c r="N33" s="104"/>
+      <c r="O33" s="104"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="84"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F34" s="103" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="104"/>
+      <c r="M34" s="104"/>
+      <c r="N34" s="104"/>
+      <c r="O34" s="104"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B35" s="84"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B36" s="84"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B37" s="84"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="76"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B38" s="84"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="75"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="76"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B39" s="84"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="75"/>
+      <c r="N39" s="75"/>
+      <c r="O39" s="76"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B40" s="84"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="76"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="82">
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:O11"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="F10:O10"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F4:O4"/>
+    <mergeCell ref="F5:O5"/>
+    <mergeCell ref="F24:O24"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:O18"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:O12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:O13"/>
+    <mergeCell ref="F27:O27"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:O25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:O26"/>
+    <mergeCell ref="F30:O30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:O28"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="F29:O29"/>
-    <mergeCell ref="F30:O30"/>
-    <mergeCell ref="F31:O31"/>
-    <mergeCell ref="F32:O32"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B23:D24"/>
+    <mergeCell ref="B2:O2"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:O15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:O12"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:O22"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:O17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:O19"/>
     <mergeCell ref="F6:O6"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F7:O7"/>
     <mergeCell ref="F8:O8"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:O13"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="F9:O9"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B31:D32"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:O23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:O20"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="F14:O14"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="F26:O26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:O27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:O28"/>
-    <mergeCell ref="F25:O25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:O22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:O20"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:O16"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="F21:O21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:O19"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:O17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:O18"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:O9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:O11"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:O16"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:O10"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:O4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:O5"/>
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F37:O37"/>
+    <mergeCell ref="F38:O38"/>
+    <mergeCell ref="F39:O39"/>
+    <mergeCell ref="F40:O40"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="F34:O34"/>
+    <mergeCell ref="F35:O35"/>
+    <mergeCell ref="F36:O36"/>
+    <mergeCell ref="F33:O33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F26" r:id="rId1" xr:uid="{5BC1866E-C4A6-47DF-8153-D5F818AC3753}"/>
+    <hyperlink ref="F34" r:id="rId1" xr:uid="{5BC1866E-C4A6-47DF-8153-D5F818AC3753}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC095FA1-18AF-4441-8643-9C487689AFEA}">
   <dimension ref="B1"/>
   <sheetViews>
@@ -5398,7 +5625,7 @@
   <sheetData>
     <row r="1" spans="2:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/Demo_VinylHouse.xlsx
+++ b/Demo_VinylHouse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\LEEBAE\IOTDEV\blynk\Demo_VinylHouse_timer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9678B30-AAA7-460B-9747-1A6C9C565459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25310758-4F1F-4861-AB07-40434B00A463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0AEB6F52-55B6-4821-9B9E-F5CDCA45F040}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="217">
   <si>
     <t>DS개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1694,6 +1694,14 @@
     <t>온도센서가 30회 오류나면 온도센서오류 알람을 보내고 내용은 앱으로 리부팅을 해보라고 하는 내용이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>고정아이피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반드시 고정 IP을 확인해야 한다. 기본적으로는 192.168.1.177으로 세팅되어 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2230,6 +2238,69 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2257,83 +2328,86 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2350,94 +2424,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3423,74 +3431,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="69"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="48"/>
     </row>
     <row r="2" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
     </row>
     <row r="3" spans="2:14" ht="356.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
     </row>
     <row r="4" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="53" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -3499,37 +3507,37 @@
       <c r="E5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="63" t="s">
+      <c r="I5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="65" t="s">
+      <c r="K5" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="M5" s="63" t="s">
+      <c r="M5" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="63" t="s">
+      <c r="N5" s="53" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="11">
         <f>SUM(D7:D90)</f>
         <v>13</v>
@@ -3538,18 +3546,18 @@
         <f>SUM(E7:E90)</f>
         <v>20</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
     </row>
     <row r="7" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="57" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -3568,7 +3576,7 @@
       <c r="L7" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="M7" s="55" t="s">
+      <c r="M7" s="58" t="s">
         <v>74</v>
       </c>
       <c r="N7" s="6" t="s">
@@ -3576,7 +3584,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="60"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="6" t="s">
         <v>3</v>
       </c>
@@ -3595,114 +3603,114 @@
       <c r="L8" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="55"/>
+      <c r="M8" s="58"/>
       <c r="N8" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="60"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="59">
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61" t="s">
+      <c r="H9" s="59"/>
+      <c r="I9" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="L9" s="62" t="s">
+      <c r="L9" s="60" t="s">
         <v>70</v>
       </c>
       <c r="M9" s="7"/>
-      <c r="N9" s="54" t="s">
+      <c r="N9" s="61" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="60"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
       </c>
-      <c r="E10" s="61"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="62"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="60"/>
       <c r="M10" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="N10" s="54"/>
+      <c r="N10" s="61"/>
     </row>
     <row r="11" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="60"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="E11" s="61"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="62"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="60"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="54"/>
+      <c r="N11" s="61"/>
     </row>
     <row r="12" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="60"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
       </c>
-      <c r="E12" s="61"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="62"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="60"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="54"/>
+      <c r="N12" s="61"/>
     </row>
     <row r="13" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="60"/>
-      <c r="C13" s="55" t="s">
+      <c r="B13" s="57"/>
+      <c r="C13" s="58" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="6">
@@ -3713,7 +3721,7 @@
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="55" t="s">
+      <c r="H13" s="58" t="s">
         <v>5</v>
       </c>
       <c r="I13" s="6" t="s">
@@ -3728,16 +3736,16 @@
       <c r="L13" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="M13" s="55" t="s">
+      <c r="M13" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="N13" s="56" t="s">
+      <c r="N13" s="62" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="60"/>
-      <c r="C14" s="55"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="6">
         <v>0</v>
       </c>
@@ -3746,7 +3754,7 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="55"/>
+      <c r="H14" s="58"/>
       <c r="I14" s="6" t="s">
         <v>42</v>
       </c>
@@ -3759,11 +3767,11 @@
       <c r="L14" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="M14" s="55"/>
-      <c r="N14" s="56"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="62"/>
     </row>
     <row r="15" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="60"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="7" t="s">
         <v>131</v>
       </c>
@@ -3788,7 +3796,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="60"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="6" t="s">
         <v>1</v>
       </c>
@@ -3823,7 +3831,7 @@
       </c>
     </row>
     <row r="17" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="60"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
@@ -3858,7 +3866,7 @@
       </c>
     </row>
     <row r="18" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="60"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
@@ -3893,7 +3901,7 @@
       </c>
     </row>
     <row r="19" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="60"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -3908,7 +3916,7 @@
       <c r="N19" s="25"/>
     </row>
     <row r="20" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="60"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="7" t="s">
         <v>127</v>
       </c>
@@ -3937,7 +3945,7 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="66" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -3946,101 +3954,101 @@
       <c r="D21" s="8">
         <v>1</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="67">
         <v>1</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46" t="s">
+      <c r="H21" s="67"/>
+      <c r="I21" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="46" t="s">
+      <c r="J21" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="K21" s="48" t="s">
+      <c r="K21" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="L21" s="53" t="s">
+      <c r="L21" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="46" t="s">
+      <c r="M21" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="N21" s="46" t="s">
+      <c r="N21" s="67" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="45"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
       </c>
-      <c r="E22" s="46"/>
+      <c r="E22" s="67"/>
       <c r="F22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
     </row>
     <row r="23" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="45"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="46"/>
+      <c r="E23" s="67"/>
       <c r="F23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
     </row>
     <row r="24" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="45"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
       </c>
-      <c r="E24" s="46"/>
+      <c r="E24" s="67"/>
       <c r="F24" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
     </row>
     <row r="25" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="45"/>
-      <c r="C25" s="47" t="s">
+      <c r="B25" s="66"/>
+      <c r="C25" s="68" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="9">
@@ -4049,9 +4057,9 @@
       <c r="E25" s="9">
         <v>1</v>
       </c>
-      <c r="F25" s="51"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47" t="s">
+      <c r="F25" s="72"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68" t="s">
         <v>18</v>
       </c>
       <c r="I25" s="9" t="s">
@@ -4066,25 +4074,25 @@
       <c r="L25" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="M25" s="47" t="s">
+      <c r="M25" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="N25" s="47" t="s">
+      <c r="N25" s="68" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="45"/>
-      <c r="C26" s="47"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="9">
         <v>0</v>
       </c>
       <c r="E26" s="9">
         <v>1</v>
       </c>
-      <c r="F26" s="52"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
       <c r="I26" s="9" t="s">
         <v>58</v>
       </c>
@@ -4097,11 +4105,11 @@
       <c r="L26" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
     </row>
     <row r="27" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="45"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="8" t="s">
         <v>132</v>
       </c>
@@ -4126,7 +4134,7 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="45"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="9" t="s">
         <v>1</v>
       </c>
@@ -4161,7 +4169,7 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="45"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="12" t="s">
         <v>22</v>
       </c>
@@ -4196,7 +4204,7 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B30" s="45"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="12" t="s">
         <v>23</v>
       </c>
@@ -4231,7 +4239,7 @@
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="45"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="23"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -4246,7 +4254,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="45"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="1" t="s">
         <v>127</v>
       </c>
@@ -4275,7 +4283,7 @@
       </c>
     </row>
     <row r="33" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="51" t="s">
         <v>97</v>
       </c>
       <c r="C33" s="18" t="s">
@@ -4306,7 +4314,7 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="73"/>
+      <c r="B34" s="52"/>
       <c r="C34" s="16" t="s">
         <v>139</v>
       </c>
@@ -4335,7 +4343,7 @@
       </c>
     </row>
     <row r="35" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="16" t="s">
         <v>85</v>
       </c>
@@ -4364,7 +4372,7 @@
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="73"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="17" t="s">
         <v>119</v>
       </c>
@@ -4393,7 +4401,7 @@
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="73"/>
+      <c r="B37" s="52"/>
       <c r="C37" s="18" t="s">
         <v>128</v>
       </c>
@@ -4629,6 +4637,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="B21:B32"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="B7:B20"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="L9:L12"/>
     <mergeCell ref="B4:N4"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B2:N2"/>
@@ -4645,36 +4683,6 @@
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="B7:B20"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="B21:B32"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="I21:I24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="M21:M24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4703,8 +4711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080A3F43-FFAB-474F-8627-7A9B7AE80863}">
   <dimension ref="B1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:O24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4724,601 +4732,605 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="106"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="76"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="79" t="s">
         <v>212</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="114"/>
+      <c r="C3" s="82" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="83"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="84" t="s">
+        <v>216</v>
+      </c>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="86"/>
     </row>
     <row r="4" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="88"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="114"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="86"/>
     </row>
     <row r="5" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="88"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="114"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="86"/>
     </row>
     <row r="6" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="88"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="114"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="86"/>
     </row>
     <row r="7" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="88"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="114"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="86"/>
     </row>
     <row r="8" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="88"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="114"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="86"/>
     </row>
     <row r="9" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="88"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="114"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="86"/>
     </row>
     <row r="10" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="111"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="108"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="83"/>
     </row>
     <row r="11" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="93" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="96"/>
+      <c r="D11" s="77"/>
       <c r="E11" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="101" t="s">
+      <c r="F11" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
     </row>
     <row r="12" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="86"/>
-      <c r="C12" s="98" t="s">
+      <c r="B12" s="94"/>
+      <c r="C12" s="90" t="s">
         <v>170</v>
       </c>
-      <c r="D12" s="98"/>
+      <c r="D12" s="90"/>
       <c r="E12" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="100" t="s">
+      <c r="F12" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
     </row>
     <row r="13" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="86"/>
-      <c r="C13" s="96" t="s">
+      <c r="B13" s="94"/>
+      <c r="C13" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="96"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="97" t="s">
+      <c r="F13" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
     </row>
     <row r="14" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="86"/>
-      <c r="C14" s="98" t="s">
+      <c r="B14" s="94"/>
+      <c r="C14" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="98"/>
+      <c r="D14" s="90"/>
       <c r="E14" s="38"/>
-      <c r="F14" s="100" t="s">
+      <c r="F14" s="91" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
     </row>
     <row r="15" spans="2:15" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="86"/>
-      <c r="C15" s="102" t="s">
+      <c r="B15" s="94"/>
+      <c r="C15" s="92" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="98"/>
+      <c r="D15" s="90"/>
       <c r="E15" s="38"/>
-      <c r="F15" s="99" t="s">
+      <c r="F15" s="88" t="s">
         <v>153</v>
       </c>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
     </row>
     <row r="16" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="86"/>
-      <c r="C16" s="96" t="s">
+      <c r="B16" s="94"/>
+      <c r="C16" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="96"/>
+      <c r="D16" s="77"/>
       <c r="E16" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="101" t="s">
+      <c r="F16" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
     </row>
     <row r="17" spans="2:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="86"/>
-      <c r="C17" s="98" t="s">
+      <c r="B17" s="94"/>
+      <c r="C17" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="98"/>
+      <c r="D17" s="90"/>
       <c r="E17" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="99" t="s">
+      <c r="F17" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
     </row>
     <row r="18" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="86"/>
-      <c r="C18" s="96" t="s">
+      <c r="B18" s="94"/>
+      <c r="C18" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="D18" s="96"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="97" t="s">
+      <c r="F18" s="89" t="s">
         <v>213</v>
       </c>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
     </row>
     <row r="19" spans="2:15" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="87" t="s">
+      <c r="B19" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="92" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="98"/>
+      <c r="D19" s="90"/>
       <c r="E19" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="99" t="s">
+      <c r="F19" s="88" t="s">
         <v>207</v>
       </c>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
     </row>
     <row r="20" spans="2:15" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="88"/>
-      <c r="C20" s="98" t="s">
+      <c r="B20" s="80"/>
+      <c r="C20" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="98"/>
+      <c r="D20" s="90"/>
       <c r="E20" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="99" t="s">
+      <c r="F20" s="88" t="s">
         <v>167</v>
       </c>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
     </row>
     <row r="21" spans="2:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="88"/>
-      <c r="C21" s="98" t="s">
+      <c r="B21" s="80"/>
+      <c r="C21" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="98"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F21" s="99" t="s">
+      <c r="F21" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
     </row>
     <row r="22" spans="2:15" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="88"/>
-      <c r="C22" s="102" t="s">
+      <c r="B22" s="80"/>
+      <c r="C22" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="D22" s="102"/>
+      <c r="D22" s="92"/>
       <c r="E22" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="99" t="s">
+      <c r="F22" s="88" t="s">
         <v>210</v>
       </c>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="88"/>
     </row>
     <row r="23" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="89"/>
-      <c r="C23" s="98" t="s">
+      <c r="B23" s="95"/>
+      <c r="C23" s="90" t="s">
         <v>209</v>
       </c>
-      <c r="D23" s="98"/>
+      <c r="D23" s="90"/>
       <c r="E23" s="38"/>
-      <c r="F23" s="99" t="s">
+      <c r="F23" s="88" t="s">
         <v>211</v>
       </c>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
     </row>
     <row r="24" spans="2:15" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="102" t="s">
         <v>158</v>
       </c>
-      <c r="C24" s="98" t="s">
+      <c r="C24" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="D24" s="98"/>
+      <c r="D24" s="90"/>
       <c r="E24" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="99" t="s">
+      <c r="F24" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
     </row>
     <row r="25" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="81"/>
-      <c r="C25" s="98" t="s">
+      <c r="B25" s="103"/>
+      <c r="C25" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="D25" s="98"/>
+      <c r="D25" s="90"/>
       <c r="E25" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="99" t="s">
+      <c r="F25" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
     </row>
     <row r="26" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="81"/>
-      <c r="C26" s="98" t="s">
+      <c r="B26" s="103"/>
+      <c r="C26" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="98"/>
+      <c r="D26" s="90"/>
       <c r="E26" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F26" s="99" t="s">
+      <c r="F26" s="88" t="s">
         <v>214</v>
       </c>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
     </row>
     <row r="27" spans="2:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="81"/>
-      <c r="C27" s="98" t="s">
+      <c r="B27" s="103"/>
+      <c r="C27" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="D27" s="98"/>
+      <c r="D27" s="90"/>
       <c r="E27" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="F27" s="99" t="s">
+      <c r="F27" s="88" t="s">
         <v>164</v>
       </c>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="99"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
     </row>
     <row r="28" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="81"/>
-      <c r="C28" s="98" t="s">
+      <c r="B28" s="103"/>
+      <c r="C28" s="90" t="s">
         <v>165</v>
       </c>
-      <c r="D28" s="98"/>
+      <c r="D28" s="90"/>
       <c r="E28" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F28" s="100" t="s">
+      <c r="F28" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="100"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="91"/>
     </row>
     <row r="29" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="81"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
     </row>
     <row r="30" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="82"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="101"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
     </row>
     <row r="31" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="91"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="96" t="s">
+      <c r="C31" s="97"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="77" t="s">
         <v>62</v>
       </c>
       <c r="F31" s="14" t="s">
@@ -5330,10 +5342,10 @@
       <c r="H31" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="I31" s="96" t="s">
+      <c r="I31" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="J31" s="96"/>
+      <c r="J31" s="77"/>
       <c r="K31" s="14" t="s">
         <v>115</v>
       </c>
@@ -5345,10 +5357,10 @@
       <c r="O31" s="14"/>
     </row>
     <row r="32" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="93"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="96"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="77"/>
       <c r="F32" s="14" t="s">
         <v>109</v>
       </c>
@@ -5358,10 +5370,10 @@
       <c r="H32" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="I32" s="96" t="s">
+      <c r="I32" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="J32" s="96"/>
+      <c r="J32" s="77"/>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
@@ -5369,138 +5381,138 @@
       <c r="O32" s="14"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="83" t="s">
+      <c r="B33" s="105" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="77" t="s">
+      <c r="C33" s="110" t="s">
         <v>159</v>
       </c>
-      <c r="D33" s="78"/>
+      <c r="D33" s="111"/>
       <c r="E33" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F33" s="104" t="s">
+      <c r="F33" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="104"/>
-      <c r="M33" s="104"/>
-      <c r="N33" s="104"/>
-      <c r="O33" s="104"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="114"/>
+      <c r="N33" s="114"/>
+      <c r="O33" s="114"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="84"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="69"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="48"/>
       <c r="E34" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F34" s="103" t="s">
+      <c r="F34" s="113" t="s">
         <v>161</v>
       </c>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="104"/>
-      <c r="L34" s="104"/>
-      <c r="M34" s="104"/>
-      <c r="N34" s="104"/>
-      <c r="O34" s="104"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="114"/>
+      <c r="N34" s="114"/>
+      <c r="O34" s="114"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="84"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="84"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="84"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="76"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="108"/>
+      <c r="K37" s="108"/>
+      <c r="L37" s="108"/>
+      <c r="M37" s="108"/>
+      <c r="N37" s="108"/>
+      <c r="O37" s="109"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="84"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="75"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="76"/>
+      <c r="B38" s="106"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="108"/>
+      <c r="J38" s="108"/>
+      <c r="K38" s="108"/>
+      <c r="L38" s="108"/>
+      <c r="M38" s="108"/>
+      <c r="N38" s="108"/>
+      <c r="O38" s="109"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="84"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="76"/>
+      <c r="B39" s="106"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="108"/>
+      <c r="K39" s="108"/>
+      <c r="L39" s="108"/>
+      <c r="M39" s="108"/>
+      <c r="N39" s="108"/>
+      <c r="O39" s="109"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="84"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="76"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="108"/>
+      <c r="K40" s="108"/>
+      <c r="L40" s="108"/>
+      <c r="M40" s="108"/>
+      <c r="N40" s="108"/>
+      <c r="O40" s="109"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D41" s="39"/>
@@ -5518,6 +5530,72 @@
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="F37:O37"/>
+    <mergeCell ref="F38:O38"/>
+    <mergeCell ref="F39:O39"/>
+    <mergeCell ref="F40:O40"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="F34:O34"/>
+    <mergeCell ref="F35:O35"/>
+    <mergeCell ref="F36:O36"/>
+    <mergeCell ref="F33:O33"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B31:D32"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:O23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:O20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:O21"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:O15"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:O22"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:O17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:O19"/>
+    <mergeCell ref="F6:O6"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="F8:O8"/>
+    <mergeCell ref="F9:O9"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F30:O30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:O28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:O29"/>
+    <mergeCell ref="F27:O27"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:O25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:O26"/>
+    <mergeCell ref="F24:O24"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:O18"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:O12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:O13"/>
+    <mergeCell ref="F14:O14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:O16"/>
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="F11:O11"/>
@@ -5534,72 +5612,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="F4:O4"/>
     <mergeCell ref="F5:O5"/>
-    <mergeCell ref="F24:O24"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:O18"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:O12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:O13"/>
-    <mergeCell ref="F27:O27"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:O25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:O26"/>
-    <mergeCell ref="F30:O30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:O28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:O29"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:O15"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:O22"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:O17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:O19"/>
-    <mergeCell ref="F6:O6"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="F8:O8"/>
-    <mergeCell ref="F9:O9"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B31:D32"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:O23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:O20"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:O14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:O16"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:O21"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F37:O37"/>
-    <mergeCell ref="F38:O38"/>
-    <mergeCell ref="F39:O39"/>
-    <mergeCell ref="F40:O40"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="F34:O34"/>
-    <mergeCell ref="F35:O35"/>
-    <mergeCell ref="F36:O36"/>
-    <mergeCell ref="F33:O33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Demo_VinylHouse.xlsx
+++ b/Demo_VinylHouse.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\LEEBAE\IOTDEV\blynk\Demo_VinylHouse_timer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\LEEBAE\IOTDEV\blynk\Demo_VinylHouse_timer\Demo_VinylHouse_timer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25310758-4F1F-4861-AB07-40434B00A463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30190F7-602B-406C-9D3E-B87A1E8662AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0AEB6F52-55B6-4821-9B9E-F5CDCA45F040}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0AEB6F52-55B6-4821-9B9E-F5CDCA45F040}"/>
   </bookViews>
   <sheets>
     <sheet name="비닐하우스타이머" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="219">
   <si>
     <t>DS개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -591,12 +591,6 @@
   </si>
   <si>
     <t>산업용 아두이노를 웹서버로 만들어 켐으로 찍은사진을 일시 저장하여 Image Gallary 윗제에서 보여준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 릴레이가 OFF된 상태, 화면 위제도 모두 강제로 OFF 상태 만들다.
-환경설정값은 Blynk 서버에 저장된 관수모터 타이머 정보, 온도수집정보, 자동/수동모드,개폐온도 정보는 클라우드 정보와 Sync을 맟추어야한다.
-환경설정 모드는 반드시 읽기모드로 되어야하고 기타기능에서 온도 수집 값은  그전에 저장한 (0,1)로 설정되어야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1490,12 +1484,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>재부팅
-재연결
-기타기능 &gt; 운전모드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>환경설정의 기타기능에서 
 빈번한 온도수집 : 현재 온도와 변화가 없다면  Blynk서버로 보내지 않는다.
 적당한 온도수집: 현재온도에서 -1,+1 이라면 Blynk서버로 보내지 않으므로 화면도 갱신이 되지 않는다.
@@ -1636,13 +1624,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>인터넷이 끊기면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배전반의 온도,습도 체크: 리얼타임 약 1초
+하우스의 온도,습도 체크: 리얼타임 약 1초
+관수타이머 체크: 리얼타임 약 1초 
+NTP 시간 업데이트 5분마다: 23시56분~00시 사이에 NTP 시간을 업데이트 하면 5분후에 하므로 요일체크는 최대 5분정도 늦게 체크된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초에 한 개만 받을수 있다. (웹콘솔에서 변경가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출
+고
+전
+확
+인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초마다 인터넷을 체크하다가 인터넷이 끊기면 시스탬을 재부팅한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온도센서가 30회 오류나면 온도센서오류 알람을 보내고 내용은 앱으로 리부팅을 해보라고 하는 내용이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정아이피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반드시 고정 IP을 확인해야 한다. 기본적으로는 192.168.1.177으로 세팅되어 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">재부팅
+재연결
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타기능 &gt; 운전모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">재부팅이란: 정전이 되어 배전반의 컴퓨터가 다운되고 다시 전기 들어올때 컴퓨터가 재부팅되는것을 말한다.
 재연결이란: 어떤이유로 Blynk 서버와 연결이 끊어지고 다시 자동으로 재연결되는 것을 말한다.
-운전모드에서 자동모드는 사용자가 설정한 개폐온도,관수타이머에 의해 자동으로 실행되는 모드이고 수동모드는 스위치로 작동시킨다.
-재부팅과 재연결과 운전모드 변경은 모두 같은 초기값 구현으로 처리를 한다.
-영향:
-   자동모드에서는 환경설정값으로 다시 운전되므로 영향이 없고
+재부팅과 재연결 에서는 blynk 서버에 저장된 운전모드에 따라 달라진다.
+   자동모드에서는 모두 초기값으로 구현
    </t>
     </r>
     <r>
@@ -1660,46 +1699,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인터넷이 끊기면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알람</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배전반의 온도,습도 체크: 리얼타임 약 1초
-하우스의 온도,습도 체크: 리얼타임 약 1초
-관수타이머 체크: 리얼타임 약 1초 
-NTP 시간 업데이트 5분마다: 23시56분~00시 사이에 NTP 시간을 업데이트 하면 5분후에 하므로 요일체크는 최대 5분정도 늦게 체크된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1초에 한 개만 받을수 있다. (웹콘솔에서 변경가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출
-고
-전
-확
-인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1초마다 인터넷을 체크하다가 인터넷이 끊기면 시스탬을 재부팅한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>온도센서가 30회 오류나면 온도센서오류 알람을 보내고 내용은 앱으로 리부팅을 해보라고 하는 내용이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정아이피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반드시 고정 IP을 확인해야 한다. 기본적으로는 192.168.1.177으로 세팅되어 있다.</t>
+    <t>운전모드에서 자동모드는 사용자가 설정한 개폐온도,관수타이머에 의해 자동으로 실행되는 모드이고 수동모드는 스위치로 작동시킨다.
+자동모드에서 수동모드을 전환하면: 개폐 및 관수 스위치 위젯 enable, 관수타이머,자동개폐LED 위젯을 Disable, 창문을닫고 개폐 LED을 OFF한다.
+수동모드에서 자동모드을 전환하면: 개폐 및 관수 스위치 위젯 disable, 관수타이머,자동개폐LED 위젯을 enable, 창문을닫고 개폐 LED을 OFF한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 릴레이가 OFF된 상태(창도 모두 닫힌상태,관수도 중지된상태), 화면 위제도 모두 강제로 OFF 상태 만들다.
+환경설정값은 Blynk 서버에 저장된 관수모터 타이머 정보, 온도수집정보, 자동/수동모드,개폐온도 정보는 클라우드 정보와 Sync을 맟추어야한다.
+환경설정 편집모드는 반드시 읽기모드로 되어야하고 기타기능에서 온도 수집 값은  그전에 저장한 (0,1)로 설정되어야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2102,7 +2110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2241,6 +2249,60 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2274,179 +2336,140 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3410,8 +3433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836B7AA0-D363-4D21-8733-9AE4F3952C5C}">
   <dimension ref="B1:N63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3431,74 +3454,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="48"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="66"/>
     </row>
     <row r="2" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
     </row>
     <row r="3" spans="2:14" ht="356.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
     </row>
     <row r="4" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="71" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -3507,37 +3530,37 @@
       <c r="E5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="L5" s="54" t="s">
+      <c r="L5" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="M5" s="53" t="s">
+      <c r="M5" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="53" t="s">
+      <c r="N5" s="71" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
       <c r="D6" s="11">
         <f>SUM(D7:D90)</f>
         <v>13</v>
@@ -3546,18 +3569,18 @@
         <f>SUM(E7:E90)</f>
         <v>20</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
     </row>
     <row r="7" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="61" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -3574,9 +3597,9 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="M7" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="M7" s="56" t="s">
         <v>74</v>
       </c>
       <c r="N7" s="6" t="s">
@@ -3584,7 +3607,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="57"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="6" t="s">
         <v>3</v>
       </c>
@@ -3603,114 +3626,114 @@
       <c r="L8" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="58"/>
+      <c r="M8" s="56"/>
       <c r="N8" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="57"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="62">
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59" t="s">
+      <c r="H9" s="62"/>
+      <c r="I9" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="59" t="s">
-        <v>176</v>
-      </c>
-      <c r="K9" s="63" t="s">
+      <c r="J9" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="K9" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="L9" s="60" t="s">
+      <c r="L9" s="63" t="s">
         <v>70</v>
       </c>
       <c r="M9" s="7"/>
-      <c r="N9" s="61" t="s">
+      <c r="N9" s="55" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="57"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
       </c>
-      <c r="E10" s="59"/>
+      <c r="E10" s="62"/>
       <c r="F10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="60"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="63"/>
       <c r="M10" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="N10" s="61"/>
+      <c r="N10" s="55"/>
     </row>
     <row r="11" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="57"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="E11" s="59"/>
+      <c r="E11" s="62"/>
       <c r="F11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="60"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="63"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="61"/>
+      <c r="N11" s="55"/>
     </row>
     <row r="12" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="57"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
       </c>
-      <c r="E12" s="59"/>
+      <c r="E12" s="62"/>
       <c r="F12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="60"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="63"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="61"/>
+      <c r="N12" s="55"/>
     </row>
     <row r="13" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="57"/>
-      <c r="C13" s="58" t="s">
+      <c r="B13" s="61"/>
+      <c r="C13" s="56" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="6">
@@ -3721,7 +3744,7 @@
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="58" t="s">
+      <c r="H13" s="56" t="s">
         <v>5</v>
       </c>
       <c r="I13" s="6" t="s">
@@ -3734,18 +3757,18 @@
         <v>104</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="M13" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="M13" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="N13" s="62" t="s">
+      <c r="N13" s="57" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="57"/>
-      <c r="C14" s="58"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="6">
         <v>0</v>
       </c>
@@ -3754,7 +3777,7 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="58"/>
+      <c r="H14" s="56"/>
       <c r="I14" s="6" t="s">
         <v>42</v>
       </c>
@@ -3767,11 +3790,11 @@
       <c r="L14" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="M14" s="58"/>
-      <c r="N14" s="62"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
     </row>
     <row r="15" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="57"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="7" t="s">
         <v>131</v>
       </c>
@@ -3796,7 +3819,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="57"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="6" t="s">
         <v>1</v>
       </c>
@@ -3831,7 +3854,7 @@
       </c>
     </row>
     <row r="17" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="57"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
@@ -3866,7 +3889,7 @@
       </c>
     </row>
     <row r="18" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="57"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
@@ -3901,7 +3924,7 @@
       </c>
     </row>
     <row r="19" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="57"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -3916,7 +3939,7 @@
       <c r="N19" s="25"/>
     </row>
     <row r="20" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="57"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="7" t="s">
         <v>127</v>
       </c>
@@ -3931,7 +3954,7 @@
         <v>88</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>101</v>
@@ -3945,7 +3968,7 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="46" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -3954,101 +3977,101 @@
       <c r="D21" s="8">
         <v>1</v>
       </c>
-      <c r="E21" s="67">
+      <c r="E21" s="47">
         <v>1</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="67" t="s">
+      <c r="G21" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67" t="s">
+      <c r="H21" s="47"/>
+      <c r="I21" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="67" t="s">
-        <v>177</v>
-      </c>
-      <c r="K21" s="69" t="s">
+      <c r="J21" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="K21" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="L21" s="74" t="s">
+      <c r="L21" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="67" t="s">
+      <c r="M21" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="N21" s="67" t="s">
+      <c r="N21" s="47" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="66"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
       </c>
-      <c r="E22" s="67"/>
+      <c r="E22" s="47"/>
       <c r="F22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
     </row>
     <row r="23" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="66"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="67"/>
+      <c r="E23" s="47"/>
       <c r="F23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
     </row>
     <row r="24" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="66"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
       </c>
-      <c r="E24" s="67"/>
+      <c r="E24" s="47"/>
       <c r="F24" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
     </row>
     <row r="25" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="66"/>
-      <c r="C25" s="68" t="s">
+      <c r="B25" s="46"/>
+      <c r="C25" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="9">
@@ -4057,9 +4080,9 @@
       <c r="E25" s="9">
         <v>1</v>
       </c>
-      <c r="F25" s="72"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68" t="s">
+      <c r="F25" s="52"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48" t="s">
         <v>18</v>
       </c>
       <c r="I25" s="9" t="s">
@@ -4072,27 +4095,27 @@
         <v>104</v>
       </c>
       <c r="L25" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="M25" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="M25" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="N25" s="68" t="s">
+      <c r="N25" s="48" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="66"/>
-      <c r="C26" s="68"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="9">
         <v>0</v>
       </c>
       <c r="E26" s="9">
         <v>1</v>
       </c>
-      <c r="F26" s="73"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
       <c r="I26" s="9" t="s">
         <v>58</v>
       </c>
@@ -4105,11 +4128,11 @@
       <c r="L26" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
     </row>
     <row r="27" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="66"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="8" t="s">
         <v>132</v>
       </c>
@@ -4134,7 +4157,7 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="66"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="9" t="s">
         <v>1</v>
       </c>
@@ -4169,7 +4192,7 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="66"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="12" t="s">
         <v>22</v>
       </c>
@@ -4204,7 +4227,7 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B30" s="66"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="12" t="s">
         <v>23</v>
       </c>
@@ -4239,7 +4262,7 @@
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="66"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="23"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -4254,7 +4277,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="66"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="1" t="s">
         <v>127</v>
       </c>
@@ -4269,7 +4292,7 @@
         <v>89</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>101</v>
@@ -4283,7 +4306,7 @@
       </c>
     </row>
     <row r="33" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="69" t="s">
         <v>97</v>
       </c>
       <c r="C33" s="18" t="s">
@@ -4300,13 +4323,13 @@
         <v>96</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K33" s="16" t="s">
         <v>101</v>
       </c>
       <c r="L33" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M33" s="16"/>
       <c r="N33" s="16" t="s">
@@ -4314,9 +4337,9 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="52"/>
+      <c r="B34" s="70"/>
       <c r="C34" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16">
@@ -4343,7 +4366,7 @@
       </c>
     </row>
     <row r="35" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B35" s="52"/>
+      <c r="B35" s="70"/>
       <c r="C35" s="16" t="s">
         <v>85</v>
       </c>
@@ -4364,7 +4387,7 @@
         <v>101</v>
       </c>
       <c r="L35" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M35" s="16"/>
       <c r="N35" s="16" t="s">
@@ -4372,7 +4395,7 @@
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="52"/>
+      <c r="B36" s="70"/>
       <c r="C36" s="17" t="s">
         <v>119</v>
       </c>
@@ -4401,7 +4424,7 @@
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="52"/>
+      <c r="B37" s="70"/>
       <c r="C37" s="18" t="s">
         <v>128</v>
       </c>
@@ -4416,7 +4439,7 @@
         <v>129</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K37" s="18" t="s">
         <v>101</v>
@@ -4432,7 +4455,7 @@
     <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B38" s="43"/>
       <c r="C38" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18">
@@ -4442,16 +4465,16 @@
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
       <c r="I38" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K38" s="18" t="s">
         <v>101</v>
       </c>
       <c r="L38" s="26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M38" s="18"/>
       <c r="N38" s="18" t="s">
@@ -4517,10 +4540,10 @@
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="44"/>
       <c r="C43" s="42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E43" s="42"/>
       <c r="F43" s="42"/>
@@ -4531,112 +4554,142 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C44" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C45" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C46" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C47" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C48" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C49" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C50" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C51" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C52" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C53" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C54" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C55" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C57" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C58" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C59" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C60" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C61" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C62" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C63" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="B7:B20"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="K9:K12"/>
     <mergeCell ref="B21:B32"/>
     <mergeCell ref="N21:N24"/>
     <mergeCell ref="C25:C26"/>
@@ -4653,36 +4706,6 @@
     <mergeCell ref="J21:J24"/>
     <mergeCell ref="L21:L24"/>
     <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="B7:B20"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4709,10 +4732,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080A3F43-FFAB-474F-8627-7A9B7AE80863}">
-  <dimension ref="B1:O41"/>
+  <dimension ref="B1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:O3"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4732,870 +4755,824 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="76"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="110"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
     </row>
     <row r="3" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="104" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="112" t="s">
         <v>212</v>
       </c>
-      <c r="C3" s="82" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" s="83"/>
+      <c r="D3" s="113"/>
       <c r="E3" s="45"/>
-      <c r="F3" s="84" t="s">
-        <v>216</v>
-      </c>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
+      <c r="F3" s="99" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="101"/>
     </row>
     <row r="4" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="80"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="113"/>
       <c r="E4" s="45"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="86"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="101"/>
     </row>
     <row r="5" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="80"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="45"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="86"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="101"/>
     </row>
     <row r="6" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="80"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="83"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="113"/>
       <c r="E6" s="45"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="86"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="101"/>
     </row>
     <row r="7" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="80"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="83"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="113"/>
       <c r="E7" s="45"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="86"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="101"/>
     </row>
     <row r="8" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="80"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="113"/>
       <c r="E8" s="45"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="86"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="101"/>
     </row>
     <row r="9" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="80"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="83"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="113"/>
       <c r="E9" s="45"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="86"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="101"/>
     </row>
     <row r="10" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="81"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="83"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="113"/>
       <c r="E10" s="45"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="83"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="113"/>
     </row>
     <row r="11" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="93" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="77" t="s">
+      <c r="B11" s="102" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="77"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="78" t="s">
-        <v>206</v>
-      </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
+      <c r="F11" s="107" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
     </row>
     <row r="12" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="94"/>
-      <c r="C12" s="90" t="s">
-        <v>170</v>
-      </c>
-      <c r="D12" s="90"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="91" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="91"/>
       <c r="E12" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="91" t="s">
-        <v>173</v>
-      </c>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91"/>
+      <c r="F12" s="93" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
     </row>
     <row r="13" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="94"/>
-      <c r="C13" s="77" t="s">
+      <c r="B13" s="103"/>
+      <c r="C13" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="77"/>
+      <c r="D13" s="94"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="89" t="s">
+      <c r="F13" s="108" t="s">
         <v>136</v>
       </c>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
     </row>
     <row r="14" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="94"/>
-      <c r="C14" s="90" t="s">
+      <c r="B14" s="103"/>
+      <c r="C14" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="91"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+    </row>
+    <row r="15" spans="2:15" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="103"/>
+      <c r="C15" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="91"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="92" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="91" t="s">
-        <v>133</v>
-      </c>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-    </row>
-    <row r="15" spans="2:15" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="94"/>
-      <c r="C15" s="92" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="88" t="s">
-        <v>153</v>
-      </c>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
     </row>
     <row r="16" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="94"/>
-      <c r="C16" s="77" t="s">
+      <c r="B16" s="103"/>
+      <c r="C16" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="77"/>
+      <c r="D16" s="94"/>
       <c r="E16" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="78" t="s">
+      <c r="F16" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
-    </row>
-    <row r="17" spans="2:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="94"/>
-      <c r="C17" s="90" t="s">
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
+    </row>
+    <row r="17" spans="2:15" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="103"/>
+      <c r="C17" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="90"/>
+      <c r="D17" s="91"/>
       <c r="E17" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="88"/>
-    </row>
-    <row r="18" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="94"/>
-      <c r="C18" s="77" t="s">
-        <v>208</v>
-      </c>
-      <c r="D18" s="77"/>
+      <c r="F17" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+    </row>
+    <row r="18" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="103"/>
+      <c r="C18" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="94"/>
       <c r="E18" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="89" t="s">
-        <v>213</v>
-      </c>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
+      <c r="F18" s="108" t="s">
+        <v>210</v>
+      </c>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
     </row>
     <row r="19" spans="2:15" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="79" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="92" t="s">
-        <v>166</v>
-      </c>
-      <c r="D19" s="90"/>
+      <c r="B19" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="98" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="91"/>
       <c r="E19" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="88" t="s">
-        <v>207</v>
-      </c>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88"/>
-    </row>
-    <row r="20" spans="2:15" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="80"/>
-      <c r="C20" s="90" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="90"/>
-      <c r="E20" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="88" t="s">
-        <v>167</v>
-      </c>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-    </row>
-    <row r="21" spans="2:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="80"/>
-      <c r="C21" s="90" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" s="90"/>
+      <c r="F19" s="92" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+    </row>
+    <row r="20" spans="2:15" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="105"/>
+      <c r="C20" s="115" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" s="116"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="117" t="s">
+        <v>217</v>
+      </c>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="119"/>
+    </row>
+    <row r="21" spans="2:15" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="105"/>
+      <c r="C21" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="91"/>
       <c r="E21" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F21" s="88" t="s">
-        <v>151</v>
-      </c>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-    </row>
-    <row r="22" spans="2:15" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="80"/>
-      <c r="C22" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="92"/>
+      <c r="F21" s="92" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+    </row>
+    <row r="22" spans="2:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="105"/>
+      <c r="C22" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="91"/>
       <c r="E22" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="88" t="s">
-        <v>210</v>
-      </c>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="88"/>
-    </row>
-    <row r="23" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="95"/>
-      <c r="C23" s="90" t="s">
-        <v>209</v>
-      </c>
-      <c r="D23" s="90"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="88" t="s">
-        <v>211</v>
-      </c>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
-    </row>
-    <row r="24" spans="2:15" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="102" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="90" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="90"/>
-      <c r="E24" s="38" t="s">
+      <c r="F22" s="92" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+    </row>
+    <row r="23" spans="2:15" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="105"/>
+      <c r="C23" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="98"/>
+      <c r="E23" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
-    </row>
-    <row r="25" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="103"/>
-      <c r="C25" s="90" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25" s="90"/>
+      <c r="F23" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+    </row>
+    <row r="24" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="106"/>
+      <c r="C24" s="91" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" s="91"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+    </row>
+    <row r="25" spans="2:15" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="91"/>
       <c r="E25" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
+      <c r="F25" s="92" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
     </row>
     <row r="26" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="103"/>
-      <c r="C26" s="90" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" s="90"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="91"/>
       <c r="E26" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F26" s="88" t="s">
-        <v>214</v>
-      </c>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
-    </row>
-    <row r="27" spans="2:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="103"/>
-      <c r="C27" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="90"/>
+      <c r="F26" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+    </row>
+    <row r="27" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="96"/>
+      <c r="C27" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="91"/>
       <c r="E27" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="F27" s="88" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="92" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+    </row>
+    <row r="28" spans="2:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="96"/>
+      <c r="C28" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="91"/>
+      <c r="E28" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+    </row>
+    <row r="29" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="96"/>
+      <c r="C29" s="91" t="s">
         <v>164</v>
       </c>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="88"/>
-    </row>
-    <row r="28" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="103"/>
-      <c r="C28" s="90" t="s">
-        <v>165</v>
-      </c>
-      <c r="D28" s="90"/>
-      <c r="E28" s="38" t="s">
+      <c r="D29" s="91"/>
+      <c r="E29" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F28" s="91" t="s">
-        <v>169</v>
-      </c>
-      <c r="G28" s="91"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="91"/>
-    </row>
-    <row r="29" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="103"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
+      <c r="F29" s="93" t="s">
+        <v>167</v>
+      </c>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="93"/>
     </row>
     <row r="30" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="104"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="107"/>
     </row>
     <row r="31" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="96" t="s">
+      <c r="B31" s="97"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="107"/>
+      <c r="L31" s="107"/>
+      <c r="M31" s="107"/>
+      <c r="N31" s="107"/>
+      <c r="O31" s="107"/>
+    </row>
+    <row r="32" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="97"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="77" t="s">
+      <c r="C32" s="86"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F32" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G32" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H32" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="I31" s="77" t="s">
+      <c r="I32" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="J31" s="77"/>
-      <c r="K31" s="14" t="s">
+      <c r="J32" s="94"/>
+      <c r="K32" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="L31" s="14" t="s">
+      <c r="L32" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-    </row>
-    <row r="32" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="99"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="I32" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="J32" s="77"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="105" t="s">
-        <v>157</v>
-      </c>
-      <c r="C33" s="110" t="s">
+    <row r="33" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="88"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I33" s="94" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" s="94"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="79"/>
+      <c r="E34" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="D33" s="111"/>
-      <c r="E33" s="4" t="s">
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="82"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B35" s="84"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F33" s="114" t="s">
+      <c r="F35" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="G33" s="114"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="114"/>
-      <c r="L33" s="114"/>
-      <c r="M33" s="114"/>
-      <c r="N33" s="114"/>
-      <c r="O33" s="114"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="106"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F34" s="113" t="s">
-        <v>161</v>
-      </c>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="114"/>
-      <c r="M34" s="114"/>
-      <c r="N34" s="114"/>
-      <c r="O34" s="114"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="106"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="106"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="68"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="106"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="108"/>
-      <c r="H37" s="108"/>
-      <c r="I37" s="108"/>
-      <c r="J37" s="108"/>
-      <c r="K37" s="108"/>
-      <c r="L37" s="108"/>
-      <c r="M37" s="108"/>
-      <c r="N37" s="108"/>
-      <c r="O37" s="109"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="68"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="106"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="108"/>
-      <c r="H38" s="108"/>
-      <c r="I38" s="108"/>
-      <c r="J38" s="108"/>
-      <c r="K38" s="108"/>
-      <c r="L38" s="108"/>
-      <c r="M38" s="108"/>
-      <c r="N38" s="108"/>
-      <c r="O38" s="109"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="76"/>
+      <c r="O38" s="77"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="106"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="108"/>
-      <c r="H39" s="108"/>
-      <c r="I39" s="108"/>
-      <c r="J39" s="108"/>
-      <c r="K39" s="108"/>
-      <c r="L39" s="108"/>
-      <c r="M39" s="108"/>
-      <c r="N39" s="108"/>
-      <c r="O39" s="109"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="76"/>
+      <c r="O39" s="77"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="106"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="108"/>
-      <c r="H40" s="108"/>
-      <c r="I40" s="108"/>
-      <c r="J40" s="108"/>
-      <c r="K40" s="108"/>
-      <c r="L40" s="108"/>
-      <c r="M40" s="108"/>
-      <c r="N40" s="108"/>
-      <c r="O40" s="109"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="76"/>
+      <c r="N40" s="76"/>
+      <c r="O40" s="77"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="76"/>
+      <c r="N41" s="76"/>
+      <c r="O41" s="77"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="F37:O37"/>
-    <mergeCell ref="F38:O38"/>
-    <mergeCell ref="F39:O39"/>
-    <mergeCell ref="F40:O40"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="F34:O34"/>
-    <mergeCell ref="F35:O35"/>
-    <mergeCell ref="F36:O36"/>
-    <mergeCell ref="F33:O33"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="B31:D32"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:O23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:O20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:O21"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:O15"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:O22"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:O17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:O19"/>
-    <mergeCell ref="F6:O6"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="F8:O8"/>
-    <mergeCell ref="F9:O9"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F30:O30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:O28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:O29"/>
-    <mergeCell ref="F27:O27"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:O25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:O26"/>
-    <mergeCell ref="F24:O24"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:O18"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:O12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:O13"/>
-    <mergeCell ref="F14:O14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:O16"/>
+  <mergeCells count="84">
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="F11:O11"/>
@@ -5612,10 +5589,78 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="F4:O4"/>
     <mergeCell ref="F5:O5"/>
+    <mergeCell ref="F25:O25"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:O18"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:O12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:O13"/>
+    <mergeCell ref="F14:O14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:O16"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:O20"/>
+    <mergeCell ref="F29:O29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:O30"/>
+    <mergeCell ref="F28:O28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:O26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:O27"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:O15"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:O23"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:O17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:O19"/>
+    <mergeCell ref="F6:O6"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="F8:O8"/>
+    <mergeCell ref="F9:O9"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:O24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:O21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:O22"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F31:O31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="F38:O38"/>
+    <mergeCell ref="F39:O39"/>
+    <mergeCell ref="F40:O40"/>
+    <mergeCell ref="F41:O41"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="F35:O35"/>
+    <mergeCell ref="F36:O36"/>
+    <mergeCell ref="F37:O37"/>
+    <mergeCell ref="F34:O34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F34" r:id="rId1" xr:uid="{5BC1866E-C4A6-47DF-8153-D5F818AC3753}"/>
+    <hyperlink ref="F35" r:id="rId1" xr:uid="{5BC1866E-C4A6-47DF-8153-D5F818AC3753}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
@@ -5637,7 +5682,7 @@
   <sheetData>
     <row r="1" spans="2:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/Demo_VinylHouse.xlsx
+++ b/Demo_VinylHouse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\LEEBAE\IOTDEV\blynk\Demo_VinylHouse_timer\Demo_VinylHouse_timer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30190F7-602B-406C-9D3E-B87A1E8662AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A997B61D-DC94-41B2-BA98-F8AA72764344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0AEB6F52-55B6-4821-9B9E-F5CDCA45F040}"/>
   </bookViews>
@@ -1699,15 +1699,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>운전모드에서 자동모드는 사용자가 설정한 개폐온도,관수타이머에 의해 자동으로 실행되는 모드이고 수동모드는 스위치로 작동시킨다.
-자동모드에서 수동모드을 전환하면: 개폐 및 관수 스위치 위젯 enable, 관수타이머,자동개폐LED 위젯을 Disable, 창문을닫고 개폐 LED을 OFF한다.
-수동모드에서 자동모드을 전환하면: 개폐 및 관수 스위치 위젯 disable, 관수타이머,자동개폐LED 위젯을 enable, 창문을닫고 개폐 LED을 OFF한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모든 릴레이가 OFF된 상태(창도 모두 닫힌상태,관수도 중지된상태), 화면 위제도 모두 강제로 OFF 상태 만들다.
 환경설정값은 Blynk 서버에 저장된 관수모터 타이머 정보, 온도수집정보, 자동/수동모드,개폐온도 정보는 클라우드 정보와 Sync을 맟추어야한다.
 환경설정 편집모드는 반드시 읽기모드로 되어야하고 기타기능에서 온도 수집 값은  그전에 저장한 (0,1)로 설정되어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운전모드에서 자동모드는 사용자가 설정한 개폐온도,관수타이머에 의해 자동으로 실행되는 모드이고 수동모드는 스위치로 작동시킨다.
+자동모드에서 수동모드을 전환하면: 개폐 및 관수 스위치 위젯 enable, 관수타이머,자동개폐LED 위젯을 Disable, 창문을닫고 개폐 LED을 OFF한다.
+수동모드에서 자동모드을 전환하면: 개폐 및 관수 스위치 위젯 disable, 관수타이머,자동개폐LED 위젯을 enable, 창문을닫고 개폐 LED을 OFF한다.
+수동모드에서도  사용자 설정 보다 온도가 높다면 알람을 보낸다. 자동개폐,자동관수만 관련있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1853,7 +1854,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1929,6 +1930,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2110,7 +2123,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2249,6 +2262,66 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2276,64 +2349,115 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2360,116 +2484,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3433,8 +3461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836B7AA0-D363-4D21-8733-9AE4F3952C5C}">
   <dimension ref="B1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3454,74 +3482,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="66"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="48"/>
     </row>
     <row r="2" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
     </row>
     <row r="3" spans="2:14" ht="356.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
     </row>
     <row r="4" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="53" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -3530,37 +3558,37 @@
       <c r="E5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="71" t="s">
+      <c r="I5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="73" t="s">
+      <c r="K5" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="L5" s="72" t="s">
+      <c r="L5" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="M5" s="71" t="s">
+      <c r="M5" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="71" t="s">
+      <c r="N5" s="53" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="11">
         <f>SUM(D7:D90)</f>
         <v>13</v>
@@ -3569,18 +3597,18 @@
         <f>SUM(E7:E90)</f>
         <v>20</v>
       </c>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
     </row>
     <row r="7" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="57" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -3599,7 +3627,7 @@
       <c r="L7" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="M7" s="56" t="s">
+      <c r="M7" s="58" t="s">
         <v>74</v>
       </c>
       <c r="N7" s="6" t="s">
@@ -3607,7 +3635,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="61"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="6" t="s">
         <v>3</v>
       </c>
@@ -3626,114 +3654,114 @@
       <c r="L8" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="56"/>
+      <c r="M8" s="58"/>
       <c r="N8" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="61"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="59">
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62" t="s">
+      <c r="H9" s="59"/>
+      <c r="I9" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="123" t="s">
         <v>174</v>
       </c>
-      <c r="K9" s="58" t="s">
+      <c r="K9" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="L9" s="63" t="s">
+      <c r="L9" s="60" t="s">
         <v>70</v>
       </c>
       <c r="M9" s="7"/>
-      <c r="N9" s="55" t="s">
+      <c r="N9" s="61" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="61"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
       </c>
-      <c r="E10" s="62"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="63"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="60"/>
       <c r="M10" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="N10" s="55"/>
+      <c r="N10" s="61"/>
     </row>
     <row r="11" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="61"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="E11" s="62"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="63"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="60"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="55"/>
+      <c r="N11" s="61"/>
     </row>
     <row r="12" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="61"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
       </c>
-      <c r="E12" s="62"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="63"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="60"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="55"/>
+      <c r="N12" s="61"/>
     </row>
     <row r="13" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="61"/>
-      <c r="C13" s="56" t="s">
+      <c r="B13" s="57"/>
+      <c r="C13" s="58" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="6">
@@ -3744,7 +3772,7 @@
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="56" t="s">
+      <c r="H13" s="58" t="s">
         <v>5</v>
       </c>
       <c r="I13" s="6" t="s">
@@ -3759,16 +3787,16 @@
       <c r="L13" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="M13" s="56" t="s">
+      <c r="M13" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="N13" s="57" t="s">
+      <c r="N13" s="62" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="61"/>
-      <c r="C14" s="56"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="6">
         <v>0</v>
       </c>
@@ -3777,7 +3805,7 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="56"/>
+      <c r="H14" s="58"/>
       <c r="I14" s="6" t="s">
         <v>42</v>
       </c>
@@ -3790,11 +3818,11 @@
       <c r="L14" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="62"/>
     </row>
     <row r="15" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="61"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="7" t="s">
         <v>131</v>
       </c>
@@ -3819,42 +3847,42 @@
       </c>
     </row>
     <row r="16" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="61"/>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="57"/>
+      <c r="C16" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="120">
         <v>1</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="120">
         <v>1</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6" t="s">
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="120" t="s">
         <v>101</v>
       </c>
-      <c r="L16" s="27" t="s">
+      <c r="L16" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="122" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="61"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
@@ -3869,10 +3897,10 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="124" t="s">
         <v>24</v>
       </c>
       <c r="K17" s="19" t="s">
@@ -3889,7 +3917,7 @@
       </c>
     </row>
     <row r="18" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="61"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
@@ -3904,10 +3932,10 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="124" t="s">
         <v>26</v>
       </c>
       <c r="K18" s="19" t="s">
@@ -3924,7 +3952,7 @@
       </c>
     </row>
     <row r="19" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="61"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -3939,7 +3967,7 @@
       <c r="N19" s="25"/>
     </row>
     <row r="20" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="61"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="7" t="s">
         <v>127</v>
       </c>
@@ -3968,7 +3996,7 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="66" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -3977,101 +4005,101 @@
       <c r="D21" s="8">
         <v>1</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="67">
         <v>1</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="47" t="s">
+      <c r="G21" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47" t="s">
+      <c r="H21" s="67"/>
+      <c r="I21" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="47" t="s">
+      <c r="J21" s="123" t="s">
         <v>175</v>
       </c>
-      <c r="K21" s="49" t="s">
+      <c r="K21" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="L21" s="54" t="s">
+      <c r="L21" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="47" t="s">
+      <c r="M21" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="N21" s="47" t="s">
+      <c r="N21" s="67" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="46"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
       </c>
-      <c r="E22" s="47"/>
+      <c r="E22" s="67"/>
       <c r="F22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
     </row>
     <row r="23" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="46"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="47"/>
+      <c r="E23" s="67"/>
       <c r="F23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
     </row>
     <row r="24" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="46"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
       </c>
-      <c r="E24" s="47"/>
+      <c r="E24" s="67"/>
       <c r="F24" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
     </row>
     <row r="25" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="46"/>
-      <c r="C25" s="48" t="s">
+      <c r="B25" s="66"/>
+      <c r="C25" s="68" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="9">
@@ -4080,9 +4108,9 @@
       <c r="E25" s="9">
         <v>1</v>
       </c>
-      <c r="F25" s="52"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48" t="s">
+      <c r="F25" s="72"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68" t="s">
         <v>18</v>
       </c>
       <c r="I25" s="9" t="s">
@@ -4097,25 +4125,25 @@
       <c r="L25" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="M25" s="48" t="s">
+      <c r="M25" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="N25" s="48" t="s">
+      <c r="N25" s="68" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="46"/>
-      <c r="C26" s="48"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="9">
         <v>0</v>
       </c>
       <c r="E26" s="9">
         <v>1</v>
       </c>
-      <c r="F26" s="53"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
       <c r="I26" s="9" t="s">
         <v>58</v>
       </c>
@@ -4128,11 +4156,11 @@
       <c r="L26" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
     </row>
     <row r="27" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="46"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="8" t="s">
         <v>132</v>
       </c>
@@ -4157,7 +4185,7 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="46"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="9" t="s">
         <v>1</v>
       </c>
@@ -4172,10 +4200,10 @@
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J28" s="120" t="s">
         <v>92</v>
       </c>
       <c r="K28" s="9" t="s">
@@ -4192,7 +4220,7 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="46"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="12" t="s">
         <v>22</v>
       </c>
@@ -4207,10 +4235,10 @@
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="124" t="s">
         <v>27</v>
       </c>
       <c r="K29" s="20" t="s">
@@ -4227,7 +4255,7 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B30" s="46"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="12" t="s">
         <v>23</v>
       </c>
@@ -4242,10 +4270,10 @@
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="12" t="s">
+      <c r="I30" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="124" t="s">
         <v>25</v>
       </c>
       <c r="K30" s="20" t="s">
@@ -4262,7 +4290,7 @@
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="46"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="23"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -4277,7 +4305,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="46"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="1" t="s">
         <v>127</v>
       </c>
@@ -4306,7 +4334,7 @@
       </c>
     </row>
     <row r="33" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="51" t="s">
         <v>97</v>
       </c>
       <c r="C33" s="18" t="s">
@@ -4337,7 +4365,7 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="70"/>
+      <c r="B34" s="52"/>
       <c r="C34" s="16" t="s">
         <v>138</v>
       </c>
@@ -4366,7 +4394,7 @@
       </c>
     </row>
     <row r="35" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B35" s="70"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="16" t="s">
         <v>85</v>
       </c>
@@ -4395,7 +4423,7 @@
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="70"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="17" t="s">
         <v>119</v>
       </c>
@@ -4424,7 +4452,7 @@
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="70"/>
+      <c r="B37" s="52"/>
       <c r="C37" s="18" t="s">
         <v>128</v>
       </c>
@@ -4660,6 +4688,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="B21:B32"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="B7:B20"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="L9:L12"/>
     <mergeCell ref="B4:N4"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B2:N2"/>
@@ -4676,36 +4734,6 @@
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="B7:B20"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="B21:B32"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="I21:I24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="M21:M24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4734,8 +4762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080A3F43-FFAB-474F-8627-7A9B7AE80863}">
   <dimension ref="B1:O42"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:O17"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4755,625 +4783,625 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="110"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="76"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="79" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="82" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="113"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="45"/>
-      <c r="F3" s="99" t="s">
+      <c r="F3" s="84" t="s">
         <v>213</v>
       </c>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="101"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="86"/>
     </row>
     <row r="4" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="105"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="113"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="45"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="101"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="86"/>
     </row>
     <row r="5" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="105"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="113"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="45"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="101"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="86"/>
     </row>
     <row r="6" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="105"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="113"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="45"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="101"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="86"/>
     </row>
     <row r="7" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="105"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="113"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="83"/>
       <c r="E7" s="45"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="101"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="86"/>
     </row>
     <row r="8" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="105"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="113"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="45"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="101"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="86"/>
     </row>
     <row r="9" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="105"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="113"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="45"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="101"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="86"/>
     </row>
     <row r="10" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="111"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="113"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="83"/>
       <c r="E10" s="45"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="113"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="83"/>
     </row>
     <row r="11" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="98" t="s">
         <v>154</v>
       </c>
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="94"/>
+      <c r="D11" s="77"/>
       <c r="E11" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="107" t="s">
+      <c r="F11" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="107"/>
-      <c r="N11" s="107"/>
-      <c r="O11" s="107"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
     </row>
     <row r="12" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="103"/>
-      <c r="C12" s="91" t="s">
+      <c r="B12" s="99"/>
+      <c r="C12" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="91"/>
+      <c r="D12" s="90"/>
       <c r="E12" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="93" t="s">
+      <c r="F12" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
     </row>
     <row r="13" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="103"/>
-      <c r="C13" s="94" t="s">
+      <c r="B13" s="99"/>
+      <c r="C13" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="94"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="108" t="s">
+      <c r="F13" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="107"/>
-      <c r="O13" s="107"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
     </row>
     <row r="14" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="103"/>
-      <c r="C14" s="91" t="s">
+      <c r="B14" s="99"/>
+      <c r="C14" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="D14" s="91"/>
+      <c r="D14" s="90"/>
       <c r="E14" s="38"/>
-      <c r="F14" s="93" t="s">
+      <c r="F14" s="91" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
     </row>
     <row r="15" spans="2:15" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="103"/>
-      <c r="C15" s="98" t="s">
+      <c r="B15" s="99"/>
+      <c r="C15" s="97" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="91"/>
+      <c r="D15" s="90"/>
       <c r="E15" s="38"/>
-      <c r="F15" s="92" t="s">
+      <c r="F15" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
     </row>
     <row r="16" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="103"/>
-      <c r="C16" s="94" t="s">
+      <c r="B16" s="99"/>
+      <c r="C16" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="94"/>
+      <c r="D16" s="77"/>
       <c r="E16" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="107" t="s">
+      <c r="F16" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
     </row>
     <row r="17" spans="2:15" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="103"/>
-      <c r="C17" s="91" t="s">
+      <c r="B17" s="99"/>
+      <c r="C17" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="91"/>
+      <c r="D17" s="90"/>
       <c r="E17" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="92" t="s">
-        <v>218</v>
-      </c>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
+      <c r="F17" s="88" t="s">
+        <v>217</v>
+      </c>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
     </row>
     <row r="18" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="103"/>
-      <c r="C18" s="94" t="s">
+      <c r="B18" s="99"/>
+      <c r="C18" s="77" t="s">
         <v>205</v>
       </c>
-      <c r="D18" s="94"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="108" t="s">
+      <c r="F18" s="89" t="s">
         <v>210</v>
       </c>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="108"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="108"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
     </row>
     <row r="19" spans="2:15" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="C19" s="98" t="s">
+      <c r="C19" s="97" t="s">
         <v>214</v>
       </c>
-      <c r="D19" s="91"/>
+      <c r="D19" s="90"/>
       <c r="E19" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="92" t="s">
+      <c r="F19" s="88" t="s">
         <v>216</v>
       </c>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-    </row>
-    <row r="20" spans="2:15" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="105"/>
-      <c r="C20" s="115" t="s">
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+    </row>
+    <row r="20" spans="2:15" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="80"/>
+      <c r="C20" s="92" t="s">
         <v>215</v>
       </c>
-      <c r="D20" s="116"/>
+      <c r="D20" s="93"/>
       <c r="E20" s="41"/>
-      <c r="F20" s="117" t="s">
-        <v>217</v>
-      </c>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="118"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="119"/>
+      <c r="F20" s="94" t="s">
+        <v>218</v>
+      </c>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="96"/>
     </row>
     <row r="21" spans="2:15" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="105"/>
-      <c r="C21" s="91" t="s">
+      <c r="B21" s="80"/>
+      <c r="C21" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="D21" s="91"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F21" s="92" t="s">
+      <c r="F21" s="88" t="s">
         <v>165</v>
       </c>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="88"/>
     </row>
     <row r="22" spans="2:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="105"/>
-      <c r="C22" s="91" t="s">
+      <c r="B22" s="80"/>
+      <c r="C22" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="91"/>
+      <c r="D22" s="90"/>
       <c r="E22" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="92" t="s">
+      <c r="F22" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="91"/>
     </row>
     <row r="23" spans="2:15" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="105"/>
-      <c r="C23" s="98" t="s">
+      <c r="B23" s="80"/>
+      <c r="C23" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="98"/>
+      <c r="D23" s="97"/>
       <c r="E23" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="92" t="s">
+      <c r="F23" s="88" t="s">
         <v>207</v>
       </c>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
     </row>
     <row r="24" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="106"/>
-      <c r="C24" s="91" t="s">
+      <c r="B24" s="100"/>
+      <c r="C24" s="90" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="91"/>
+      <c r="D24" s="90"/>
       <c r="E24" s="38"/>
-      <c r="F24" s="92" t="s">
+      <c r="F24" s="88" t="s">
         <v>208</v>
       </c>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="92"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
     </row>
     <row r="25" spans="2:15" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="95" t="s">
+      <c r="B25" s="107" t="s">
         <v>157</v>
       </c>
-      <c r="C25" s="91" t="s">
+      <c r="C25" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="D25" s="91"/>
+      <c r="D25" s="90"/>
       <c r="E25" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="92" t="s">
+      <c r="F25" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
     </row>
     <row r="26" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="96"/>
-      <c r="C26" s="91" t="s">
+      <c r="B26" s="108"/>
+      <c r="C26" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="91"/>
+      <c r="D26" s="90"/>
       <c r="E26" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F26" s="92" t="s">
+      <c r="F26" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
     </row>
     <row r="27" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="96"/>
-      <c r="C27" s="91" t="s">
+      <c r="B27" s="108"/>
+      <c r="C27" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="91"/>
+      <c r="D27" s="90"/>
       <c r="E27" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F27" s="92" t="s">
+      <c r="F27" s="88" t="s">
         <v>211</v>
       </c>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
     </row>
     <row r="28" spans="2:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="96"/>
-      <c r="C28" s="91" t="s">
+      <c r="B28" s="108"/>
+      <c r="C28" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="91"/>
+      <c r="D28" s="90"/>
       <c r="E28" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="F28" s="92" t="s">
+      <c r="F28" s="88" t="s">
         <v>163</v>
       </c>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
     </row>
     <row r="29" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="96"/>
-      <c r="C29" s="91" t="s">
+      <c r="B29" s="108"/>
+      <c r="C29" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="D29" s="91"/>
+      <c r="D29" s="90"/>
       <c r="E29" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F29" s="93" t="s">
+      <c r="F29" s="91" t="s">
         <v>167</v>
       </c>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="93"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="91"/>
     </row>
     <row r="30" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="96"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="107"/>
-      <c r="L30" s="107"/>
-      <c r="M30" s="107"/>
-      <c r="N30" s="107"/>
-      <c r="O30" s="107"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
     </row>
     <row r="31" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="97"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
       <c r="E31" s="10"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="107"/>
-      <c r="L31" s="107"/>
-      <c r="M31" s="107"/>
-      <c r="N31" s="107"/>
-      <c r="O31" s="107"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
     </row>
     <row r="32" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="85" t="s">
+      <c r="B32" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="86"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="94" t="s">
+      <c r="C32" s="102"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="77" t="s">
         <v>62</v>
       </c>
       <c r="F32" s="14" t="s">
@@ -5385,10 +5413,10 @@
       <c r="H32" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="I32" s="94" t="s">
+      <c r="I32" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="J32" s="94"/>
+      <c r="J32" s="77"/>
       <c r="K32" s="14" t="s">
         <v>115</v>
       </c>
@@ -5400,10 +5428,10 @@
       <c r="O32" s="14"/>
     </row>
     <row r="33" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="88"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="94"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="77"/>
       <c r="F33" s="14" t="s">
         <v>109</v>
       </c>
@@ -5413,10 +5441,10 @@
       <c r="H33" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="I33" s="94" t="s">
+      <c r="I33" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="J33" s="94"/>
+      <c r="J33" s="77"/>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
@@ -5424,138 +5452,138 @@
       <c r="O33" s="14"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="110" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="78" t="s">
+      <c r="C34" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="D34" s="79"/>
+      <c r="D34" s="116"/>
       <c r="E34" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F34" s="82" t="s">
+      <c r="F34" s="119" t="s">
         <v>159</v>
       </c>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="82"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="119"/>
+      <c r="K34" s="119"/>
+      <c r="L34" s="119"/>
+      <c r="M34" s="119"/>
+      <c r="N34" s="119"/>
+      <c r="O34" s="119"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="84"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="66"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="48"/>
       <c r="E35" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="81" t="s">
+      <c r="F35" s="118" t="s">
         <v>160</v>
       </c>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="119"/>
+      <c r="J35" s="119"/>
+      <c r="K35" s="119"/>
+      <c r="L35" s="119"/>
+      <c r="M35" s="119"/>
+      <c r="N35" s="119"/>
+      <c r="O35" s="119"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="84"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="68"/>
-      <c r="O36" s="68"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="84"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="68"/>
-      <c r="N37" s="68"/>
-      <c r="O37" s="68"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="84"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="77"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="113"/>
+      <c r="M38" s="113"/>
+      <c r="N38" s="113"/>
+      <c r="O38" s="114"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="84"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="76"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="77"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="113"/>
+      <c r="K39" s="113"/>
+      <c r="L39" s="113"/>
+      <c r="M39" s="113"/>
+      <c r="N39" s="113"/>
+      <c r="O39" s="114"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="84"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="76"/>
-      <c r="N40" s="76"/>
-      <c r="O40" s="77"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="114"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="84"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="76"/>
-      <c r="N41" s="76"/>
-      <c r="O41" s="77"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="113"/>
+      <c r="M41" s="113"/>
+      <c r="N41" s="113"/>
+      <c r="O41" s="114"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D42" s="39"/>
@@ -5573,6 +5601,74 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="F38:O38"/>
+    <mergeCell ref="F39:O39"/>
+    <mergeCell ref="F40:O40"/>
+    <mergeCell ref="F41:O41"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="F35:O35"/>
+    <mergeCell ref="F36:O36"/>
+    <mergeCell ref="F37:O37"/>
+    <mergeCell ref="F34:O34"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:O24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:O21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:O22"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F31:O31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:O15"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:O23"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:O17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:O19"/>
+    <mergeCell ref="F6:O6"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="F8:O8"/>
+    <mergeCell ref="F9:O9"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F29:O29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:O30"/>
+    <mergeCell ref="F28:O28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:O26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:O27"/>
+    <mergeCell ref="F25:O25"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:O18"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:O12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:O13"/>
+    <mergeCell ref="F14:O14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:O16"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:O20"/>
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="F11:O11"/>
@@ -5589,74 +5685,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="F4:O4"/>
     <mergeCell ref="F5:O5"/>
-    <mergeCell ref="F25:O25"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:O18"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:O12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:O13"/>
-    <mergeCell ref="F14:O14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:O16"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:O20"/>
-    <mergeCell ref="F29:O29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:O30"/>
-    <mergeCell ref="F28:O28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:O26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:O27"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:O15"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:O23"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:O17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:O19"/>
-    <mergeCell ref="F6:O6"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="F8:O8"/>
-    <mergeCell ref="F9:O9"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:O24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:O21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:O22"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F31:O31"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="F38:O38"/>
-    <mergeCell ref="F39:O39"/>
-    <mergeCell ref="F40:O40"/>
-    <mergeCell ref="F41:O41"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="F35:O35"/>
-    <mergeCell ref="F36:O36"/>
-    <mergeCell ref="F37:O37"/>
-    <mergeCell ref="F34:O34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Demo_VinylHouse.xlsx
+++ b/Demo_VinylHouse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\LEEBAE\IOTDEV\blynk\Demo_VinylHouse_timer\Demo_VinylHouse_timer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A997B61D-DC94-41B2-BA98-F8AA72764344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDCA000-84BE-4EF5-8CEF-5127CE794346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0AEB6F52-55B6-4821-9B9E-F5CDCA45F040}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0AEB6F52-55B6-4821-9B9E-F5CDCA45F040}"/>
   </bookViews>
   <sheets>
     <sheet name="비닐하우스타이머" sheetId="3" r:id="rId1"/>
@@ -1651,10 +1651,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1초마다 인터넷을 체크하다가 인터넷이 끊기면 시스탬을 재부팅한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>온도센서가 30회 오류나면 온도센서오류 알람을 보내고 내용은 앱으로 리부팅을 해보라고 하는 내용이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1674,6 +1670,19 @@
   </si>
   <si>
     <t>기타기능 &gt; 운전모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 릴레이가 OFF된 상태(창도 모두 닫힌상태,관수도 중지된상태), 화면 위제도 모두 강제로 OFF 상태 만들다.
+환경설정값은 Blynk 서버에 저장된 관수모터 타이머 정보, 온도수집정보, 자동/수동모드,개폐온도 정보는 클라우드 정보와 Sync을 맟추어야한다.
+환경설정 편집모드는 반드시 읽기모드로 되어야하고 기타기능에서 온도 수집 값은  그전에 저장한 (0,1)로 설정되어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운전모드에서 자동모드는 사용자가 설정한 개폐온도,관수타이머에 의해 자동으로 실행되는 모드이고 수동모드는 스위치로 작동시킨다.
+자동모드에서 수동모드을 전환하면: 개폐 및 관수 스위치 위젯 enable, 관수타이머,자동개폐LED 위젯을 Disable, 창문을닫고 개폐 LED을 OFF한다.
+수동모드에서 자동모드을 전환하면: 개폐 및 관수 스위치 위젯 disable, 관수타이머,자동개폐LED 위젯을 enable, 창문을닫고 개폐 LED을 OFF한다.
+수동모드에서도  사용자 설정 보다 온도가 높다면 알람을 보낸다. 자동개폐,자동관수만 관련있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1688,7 +1697,6 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -1699,16 +1707,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모든 릴레이가 OFF된 상태(창도 모두 닫힌상태,관수도 중지된상태), 화면 위제도 모두 강제로 OFF 상태 만들다.
-환경설정값은 Blynk 서버에 저장된 관수모터 타이머 정보, 온도수집정보, 자동/수동모드,개폐온도 정보는 클라우드 정보와 Sync을 맟추어야한다.
-환경설정 편집모드는 반드시 읽기모드로 되어야하고 기타기능에서 온도 수집 값은  그전에 저장한 (0,1)로 설정되어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운전모드에서 자동모드는 사용자가 설정한 개폐온도,관수타이머에 의해 자동으로 실행되는 모드이고 수동모드는 스위치로 작동시킨다.
-자동모드에서 수동모드을 전환하면: 개폐 및 관수 스위치 위젯 enable, 관수타이머,자동개폐LED 위젯을 Disable, 창문을닫고 개폐 LED을 OFF한다.
-수동모드에서 자동모드을 전환하면: 개폐 및 관수 스위치 위젯 disable, 관수타이머,자동개폐LED 위젯을 enable, 창문을닫고 개폐 LED을 OFF한다.
-수동모드에서도  사용자 설정 보다 온도가 높다면 알람을 보낸다. 자동개폐,자동관수만 관련있다.</t>
+    <t>1초마다 인터넷을 체크하다가 인터넷이 끊기면 시스탬을 재부팅한다. 재부팅이 안되는 경우가 많다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1716,7 +1715,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1850,6 +1849,14 @@
       <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -2123,7 +2130,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2262,6 +2269,75 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2295,72 +2371,96 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2368,38 +2468,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2415,89 +2488,35 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3461,8 +3480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836B7AA0-D363-4D21-8733-9AE4F3952C5C}">
   <dimension ref="B1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29:J30"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3482,74 +3501,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="48"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="71"/>
     </row>
     <row r="2" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
     </row>
     <row r="3" spans="2:14" ht="356.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
     </row>
     <row r="4" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="76" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -3558,37 +3577,37 @@
       <c r="E5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="L5" s="54" t="s">
+      <c r="L5" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="M5" s="53" t="s">
+      <c r="M5" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="53" t="s">
+      <c r="N5" s="76" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
       <c r="D6" s="11">
         <f>SUM(D7:D90)</f>
         <v>13</v>
@@ -3597,18 +3616,18 @@
         <f>SUM(E7:E90)</f>
         <v>20</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
     </row>
     <row r="7" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="66" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -3627,7 +3646,7 @@
       <c r="L7" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="M7" s="58" t="s">
+      <c r="M7" s="61" t="s">
         <v>74</v>
       </c>
       <c r="N7" s="6" t="s">
@@ -3635,7 +3654,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="57"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="6" t="s">
         <v>3</v>
       </c>
@@ -3654,114 +3673,114 @@
       <c r="L8" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="58"/>
+      <c r="M8" s="61"/>
       <c r="N8" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="57"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="67">
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="123" t="s">
+      <c r="H9" s="67"/>
+      <c r="I9" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="123" t="s">
+      <c r="J9" s="56" t="s">
         <v>174</v>
       </c>
       <c r="K9" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="L9" s="60" t="s">
+      <c r="L9" s="68" t="s">
         <v>70</v>
       </c>
       <c r="M9" s="7"/>
-      <c r="N9" s="61" t="s">
+      <c r="N9" s="60" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="57"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
       </c>
-      <c r="E10" s="59"/>
+      <c r="E10" s="67"/>
       <c r="F10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
       <c r="K10" s="64"/>
-      <c r="L10" s="60"/>
+      <c r="L10" s="68"/>
       <c r="M10" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="N10" s="61"/>
+      <c r="N10" s="60"/>
     </row>
     <row r="11" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="57"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="E11" s="59"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
       <c r="K11" s="64"/>
-      <c r="L11" s="60"/>
+      <c r="L11" s="68"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="61"/>
+      <c r="N11" s="60"/>
     </row>
     <row r="12" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="57"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
       </c>
-      <c r="E12" s="59"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
       <c r="K12" s="65"/>
-      <c r="L12" s="60"/>
+      <c r="L12" s="68"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="61"/>
+      <c r="N12" s="60"/>
     </row>
     <row r="13" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="57"/>
-      <c r="C13" s="58" t="s">
+      <c r="B13" s="66"/>
+      <c r="C13" s="61" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="6">
@@ -3772,7 +3791,7 @@
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="58" t="s">
+      <c r="H13" s="61" t="s">
         <v>5</v>
       </c>
       <c r="I13" s="6" t="s">
@@ -3787,7 +3806,7 @@
       <c r="L13" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="M13" s="58" t="s">
+      <c r="M13" s="61" t="s">
         <v>76</v>
       </c>
       <c r="N13" s="62" t="s">
@@ -3795,8 +3814,8 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="57"/>
-      <c r="C14" s="58"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="6">
         <v>0</v>
       </c>
@@ -3805,7 +3824,7 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="58"/>
+      <c r="H14" s="61"/>
       <c r="I14" s="6" t="s">
         <v>42</v>
       </c>
@@ -3818,11 +3837,11 @@
       <c r="L14" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="M14" s="58"/>
+      <c r="M14" s="61"/>
       <c r="N14" s="62"/>
     </row>
     <row r="15" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="57"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="7" t="s">
         <v>131</v>
       </c>
@@ -3847,42 +3866,42 @@
       </c>
     </row>
     <row r="16" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="57"/>
-      <c r="C16" s="120" t="s">
+      <c r="B16" s="66"/>
+      <c r="C16" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="120">
+      <c r="D16" s="46">
         <v>1</v>
       </c>
-      <c r="E16" s="120">
+      <c r="E16" s="46">
         <v>1</v>
       </c>
-      <c r="F16" s="120" t="s">
+      <c r="F16" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120" t="s">
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="120" t="s">
+      <c r="J16" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="120" t="s">
+      <c r="K16" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="L16" s="121" t="s">
+      <c r="L16" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="M16" s="120" t="s">
+      <c r="M16" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="N16" s="122" t="s">
+      <c r="N16" s="48" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="57"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
@@ -3897,10 +3916,10 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="124" t="s">
+      <c r="I17" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="124" t="s">
+      <c r="J17" s="49" t="s">
         <v>24</v>
       </c>
       <c r="K17" s="19" t="s">
@@ -3917,7 +3936,7 @@
       </c>
     </row>
     <row r="18" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="57"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
@@ -3932,10 +3951,10 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="124" t="s">
+      <c r="I18" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="124" t="s">
+      <c r="J18" s="49" t="s">
         <v>26</v>
       </c>
       <c r="K18" s="19" t="s">
@@ -3952,7 +3971,7 @@
       </c>
     </row>
     <row r="19" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="57"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -3967,7 +3986,7 @@
       <c r="N19" s="25"/>
     </row>
     <row r="20" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="57"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="7" t="s">
         <v>127</v>
       </c>
@@ -3996,7 +4015,7 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="50" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -4005,101 +4024,101 @@
       <c r="D21" s="8">
         <v>1</v>
       </c>
-      <c r="E21" s="67">
+      <c r="E21" s="51">
         <v>1</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="67" t="s">
+      <c r="G21" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="67"/>
-      <c r="I21" s="123" t="s">
+      <c r="H21" s="51"/>
+      <c r="I21" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="123" t="s">
+      <c r="J21" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="K21" s="69" t="s">
+      <c r="K21" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="L21" s="74" t="s">
+      <c r="L21" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="67" t="s">
+      <c r="M21" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="N21" s="67" t="s">
+      <c r="N21" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="66"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
       </c>
-      <c r="E22" s="67"/>
+      <c r="E22" s="51"/>
       <c r="F22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
     </row>
     <row r="23" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="66"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="67"/>
+      <c r="E23" s="51"/>
       <c r="F23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
     </row>
     <row r="24" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="66"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
       </c>
-      <c r="E24" s="67"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="123"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
     </row>
     <row r="25" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="66"/>
-      <c r="C25" s="68" t="s">
+      <c r="B25" s="50"/>
+      <c r="C25" s="52" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="9">
@@ -4108,9 +4127,9 @@
       <c r="E25" s="9">
         <v>1</v>
       </c>
-      <c r="F25" s="72"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68" t="s">
+      <c r="F25" s="57"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I25" s="9" t="s">
@@ -4125,25 +4144,25 @@
       <c r="L25" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="M25" s="68" t="s">
+      <c r="M25" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="N25" s="68" t="s">
+      <c r="N25" s="52" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="66"/>
-      <c r="C26" s="68"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="9">
         <v>0</v>
       </c>
       <c r="E26" s="9">
         <v>1</v>
       </c>
-      <c r="F26" s="73"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
       <c r="I26" s="9" t="s">
         <v>58</v>
       </c>
@@ -4156,11 +4175,11 @@
       <c r="L26" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
     </row>
     <row r="27" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="66"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="8" t="s">
         <v>132</v>
       </c>
@@ -4185,7 +4204,7 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="66"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="9" t="s">
         <v>1</v>
       </c>
@@ -4200,10 +4219,10 @@
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="120" t="s">
+      <c r="I28" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="J28" s="120" t="s">
+      <c r="J28" s="46" t="s">
         <v>92</v>
       </c>
       <c r="K28" s="9" t="s">
@@ -4220,7 +4239,7 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="66"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="12" t="s">
         <v>22</v>
       </c>
@@ -4235,10 +4254,10 @@
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="124" t="s">
+      <c r="I29" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="J29" s="124" t="s">
+      <c r="J29" s="49" t="s">
         <v>27</v>
       </c>
       <c r="K29" s="20" t="s">
@@ -4255,7 +4274,7 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B30" s="66"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="12" t="s">
         <v>23</v>
       </c>
@@ -4270,10 +4289,10 @@
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="124" t="s">
+      <c r="I30" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="J30" s="124" t="s">
+      <c r="J30" s="49" t="s">
         <v>25</v>
       </c>
       <c r="K30" s="20" t="s">
@@ -4290,7 +4309,7 @@
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="66"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="23"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -4305,7 +4324,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="66"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="1" t="s">
         <v>127</v>
       </c>
@@ -4334,7 +4353,7 @@
       </c>
     </row>
     <row r="33" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="74" t="s">
         <v>97</v>
       </c>
       <c r="C33" s="18" t="s">
@@ -4365,7 +4384,7 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="52"/>
+      <c r="B34" s="75"/>
       <c r="C34" s="16" t="s">
         <v>138</v>
       </c>
@@ -4394,7 +4413,7 @@
       </c>
     </row>
     <row r="35" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B35" s="52"/>
+      <c r="B35" s="75"/>
       <c r="C35" s="16" t="s">
         <v>85</v>
       </c>
@@ -4423,7 +4442,7 @@
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="52"/>
+      <c r="B36" s="75"/>
       <c r="C36" s="17" t="s">
         <v>119</v>
       </c>
@@ -4452,7 +4471,7 @@
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="52"/>
+      <c r="B37" s="75"/>
       <c r="C37" s="18" t="s">
         <v>128</v>
       </c>
@@ -4688,6 +4707,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="B7:B20"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="K9:K12"/>
     <mergeCell ref="B21:B32"/>
     <mergeCell ref="N21:N24"/>
     <mergeCell ref="C25:C26"/>
@@ -4704,36 +4753,6 @@
     <mergeCell ref="J21:J24"/>
     <mergeCell ref="L21:L24"/>
     <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="B7:B20"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4762,8 +4781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080A3F43-FFAB-474F-8627-7A9B7AE80863}">
   <dimension ref="B1:O42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:O21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4783,625 +4802,625 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="76"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="120"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
     </row>
     <row r="3" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="110" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="122" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="123"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="105" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="107"/>
     </row>
     <row r="4" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="80"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="123"/>
       <c r="E4" s="45"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="86"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="107"/>
     </row>
     <row r="5" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="80"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="123"/>
       <c r="E5" s="45"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="86"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="107"/>
     </row>
     <row r="6" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="80"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="83"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="123"/>
       <c r="E6" s="45"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="86"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="107"/>
     </row>
     <row r="7" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="80"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="83"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="123"/>
       <c r="E7" s="45"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="86"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="107"/>
     </row>
     <row r="8" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="80"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="123"/>
       <c r="E8" s="45"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="86"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="107"/>
     </row>
     <row r="9" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="80"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="83"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="123"/>
       <c r="E9" s="45"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="86"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="107"/>
     </row>
     <row r="10" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="81"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="83"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="123"/>
       <c r="E10" s="45"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="83"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="123"/>
     </row>
     <row r="11" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="108" t="s">
         <v>154</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="125"/>
+      <c r="E11" s="126" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="78" t="s">
+      <c r="F11" s="128" t="s">
         <v>204</v>
       </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="128"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="128"/>
     </row>
     <row r="12" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="99"/>
-      <c r="C12" s="90" t="s">
+      <c r="B12" s="109"/>
+      <c r="C12" s="96" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="90"/>
+      <c r="D12" s="96"/>
       <c r="E12" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="91" t="s">
+      <c r="F12" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
     </row>
     <row r="13" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="99"/>
-      <c r="C13" s="77" t="s">
+      <c r="B13" s="109"/>
+      <c r="C13" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="77"/>
+      <c r="D13" s="99"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="89" t="s">
+      <c r="F13" s="113" t="s">
         <v>136</v>
       </c>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
     </row>
     <row r="14" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="99"/>
-      <c r="C14" s="90" t="s">
+      <c r="B14" s="109"/>
+      <c r="C14" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="D14" s="90"/>
+      <c r="D14" s="96"/>
       <c r="E14" s="38"/>
-      <c r="F14" s="91" t="s">
+      <c r="F14" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
     </row>
     <row r="15" spans="2:15" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="99"/>
-      <c r="C15" s="97" t="s">
+      <c r="B15" s="109"/>
+      <c r="C15" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="90"/>
+      <c r="D15" s="96"/>
       <c r="E15" s="38"/>
-      <c r="F15" s="88" t="s">
+      <c r="F15" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
     </row>
     <row r="16" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="99"/>
-      <c r="C16" s="77" t="s">
+      <c r="B16" s="109"/>
+      <c r="C16" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="77"/>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="96"/>
+      <c r="E16" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="78" t="s">
+      <c r="F16" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
     </row>
     <row r="17" spans="2:15" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="99"/>
-      <c r="C17" s="90" t="s">
+      <c r="B17" s="109"/>
+      <c r="C17" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="90"/>
+      <c r="D17" s="96"/>
       <c r="E17" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="88" t="s">
-        <v>217</v>
-      </c>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="88"/>
+      <c r="F17" s="97" t="s">
+        <v>215</v>
+      </c>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="97"/>
     </row>
     <row r="18" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="99"/>
-      <c r="C18" s="77" t="s">
+      <c r="B18" s="109"/>
+      <c r="C18" s="125" t="s">
         <v>205</v>
       </c>
-      <c r="D18" s="77"/>
-      <c r="E18" s="10" t="s">
+      <c r="D18" s="125"/>
+      <c r="E18" s="126" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="89" t="s">
-        <v>210</v>
-      </c>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
+      <c r="F18" s="127" t="s">
+        <v>218</v>
+      </c>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="127"/>
+      <c r="N18" s="127"/>
+      <c r="O18" s="127"/>
     </row>
     <row r="19" spans="2:15" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="110" t="s">
         <v>149</v>
       </c>
-      <c r="C19" s="97" t="s">
-        <v>214</v>
-      </c>
-      <c r="D19" s="90"/>
+      <c r="C19" s="104" t="s">
+        <v>213</v>
+      </c>
+      <c r="D19" s="96"/>
       <c r="E19" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="88" t="s">
+      <c r="F19" s="97" t="s">
+        <v>217</v>
+      </c>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="97"/>
+      <c r="N19" s="97"/>
+      <c r="O19" s="97"/>
+    </row>
+    <row r="20" spans="2:15" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="111"/>
+      <c r="C20" s="114" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="115"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="116" t="s">
         <v>216</v>
       </c>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88"/>
-    </row>
-    <row r="20" spans="2:15" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="80"/>
-      <c r="C20" s="92" t="s">
-        <v>215</v>
-      </c>
-      <c r="D20" s="93"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="94" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="96"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="118"/>
     </row>
     <row r="21" spans="2:15" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="80"/>
-      <c r="C21" s="90" t="s">
+      <c r="B21" s="111"/>
+      <c r="C21" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="D21" s="90"/>
+      <c r="D21" s="96"/>
       <c r="E21" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F21" s="88" t="s">
+      <c r="F21" s="97" t="s">
         <v>165</v>
       </c>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="97"/>
     </row>
     <row r="22" spans="2:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="80"/>
-      <c r="C22" s="90" t="s">
+      <c r="B22" s="111"/>
+      <c r="C22" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="90"/>
+      <c r="D22" s="96"/>
       <c r="E22" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="88" t="s">
+      <c r="F22" s="97" t="s">
         <v>150</v>
       </c>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
     </row>
     <row r="23" spans="2:15" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="80"/>
-      <c r="C23" s="97" t="s">
+      <c r="B23" s="111"/>
+      <c r="C23" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="97"/>
+      <c r="D23" s="104"/>
       <c r="E23" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="88" t="s">
+      <c r="F23" s="97" t="s">
         <v>207</v>
       </c>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="97"/>
     </row>
     <row r="24" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="100"/>
-      <c r="C24" s="90" t="s">
+      <c r="B24" s="112"/>
+      <c r="C24" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="90"/>
+      <c r="D24" s="96"/>
       <c r="E24" s="38"/>
-      <c r="F24" s="88" t="s">
+      <c r="F24" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="97"/>
+      <c r="O24" s="97"/>
     </row>
     <row r="25" spans="2:15" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="107" t="s">
+      <c r="B25" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="C25" s="90" t="s">
+      <c r="C25" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="D25" s="90"/>
+      <c r="D25" s="96"/>
       <c r="E25" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="88" t="s">
+      <c r="F25" s="97" t="s">
         <v>146</v>
       </c>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="97"/>
+      <c r="O25" s="97"/>
     </row>
     <row r="26" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="108"/>
-      <c r="C26" s="90" t="s">
+      <c r="B26" s="101"/>
+      <c r="C26" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="90"/>
+      <c r="D26" s="96"/>
       <c r="E26" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F26" s="88" t="s">
+      <c r="F26" s="97" t="s">
         <v>144</v>
       </c>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
     </row>
     <row r="27" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="108"/>
-      <c r="C27" s="90" t="s">
+      <c r="B27" s="101"/>
+      <c r="C27" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="90"/>
+      <c r="D27" s="96"/>
       <c r="E27" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F27" s="88" t="s">
-        <v>211</v>
-      </c>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="88"/>
+      <c r="F27" s="97" t="s">
+        <v>210</v>
+      </c>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="97"/>
+      <c r="O27" s="97"/>
     </row>
     <row r="28" spans="2:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="108"/>
-      <c r="C28" s="90" t="s">
+      <c r="B28" s="101"/>
+      <c r="C28" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="90"/>
+      <c r="D28" s="96"/>
       <c r="E28" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="F28" s="88" t="s">
+      <c r="F28" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="97"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="97"/>
+      <c r="O28" s="97"/>
     </row>
     <row r="29" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="108"/>
-      <c r="C29" s="90" t="s">
+      <c r="B29" s="101"/>
+      <c r="C29" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="D29" s="90"/>
+      <c r="D29" s="96"/>
       <c r="E29" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F29" s="91" t="s">
+      <c r="F29" s="98" t="s">
         <v>167</v>
       </c>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="91"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
     </row>
     <row r="30" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="108"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="103"/>
     </row>
     <row r="31" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="109"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
       <c r="E31" s="10"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
+      <c r="L31" s="103"/>
+      <c r="M31" s="103"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="103"/>
     </row>
     <row r="32" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="101" t="s">
+      <c r="B32" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="102"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="77" t="s">
+      <c r="C32" s="91"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="99" t="s">
         <v>62</v>
       </c>
       <c r="F32" s="14" t="s">
@@ -5413,10 +5432,10 @@
       <c r="H32" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="I32" s="77" t="s">
+      <c r="I32" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="J32" s="77"/>
+      <c r="J32" s="99"/>
       <c r="K32" s="14" t="s">
         <v>115</v>
       </c>
@@ -5428,10 +5447,10 @@
       <c r="O32" s="14"/>
     </row>
     <row r="33" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="104"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="77"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="99"/>
       <c r="F33" s="14" t="s">
         <v>109</v>
       </c>
@@ -5441,10 +5460,10 @@
       <c r="H33" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="I33" s="77" t="s">
+      <c r="I33" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="J33" s="77"/>
+      <c r="J33" s="99"/>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
@@ -5452,138 +5471,138 @@
       <c r="O33" s="14"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="110" t="s">
+      <c r="B34" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="115" t="s">
+      <c r="C34" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="D34" s="116"/>
+      <c r="D34" s="84"/>
       <c r="E34" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F34" s="119" t="s">
+      <c r="F34" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="G34" s="119"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="119"/>
-      <c r="K34" s="119"/>
-      <c r="L34" s="119"/>
-      <c r="M34" s="119"/>
-      <c r="N34" s="119"/>
-      <c r="O34" s="119"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="111"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="48"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="71"/>
       <c r="E35" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="118" t="s">
+      <c r="F35" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="G35" s="119"/>
-      <c r="H35" s="119"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="119"/>
-      <c r="K35" s="119"/>
-      <c r="L35" s="119"/>
-      <c r="M35" s="119"/>
-      <c r="N35" s="119"/>
-      <c r="O35" s="119"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="87"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="111"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="111"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="111"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="113"/>
-      <c r="L38" s="113"/>
-      <c r="M38" s="113"/>
-      <c r="N38" s="113"/>
-      <c r="O38" s="114"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="81"/>
+      <c r="N38" s="81"/>
+      <c r="O38" s="82"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="111"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="113"/>
-      <c r="I39" s="113"/>
-      <c r="J39" s="113"/>
-      <c r="K39" s="113"/>
-      <c r="L39" s="113"/>
-      <c r="M39" s="113"/>
-      <c r="N39" s="113"/>
-      <c r="O39" s="114"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="81"/>
+      <c r="O39" s="82"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="111"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="113"/>
-      <c r="K40" s="113"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="113"/>
-      <c r="N40" s="113"/>
-      <c r="O40" s="114"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="81"/>
+      <c r="N40" s="81"/>
+      <c r="O40" s="82"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="111"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="113"/>
-      <c r="J41" s="113"/>
-      <c r="K41" s="113"/>
-      <c r="L41" s="113"/>
-      <c r="M41" s="113"/>
-      <c r="N41" s="113"/>
-      <c r="O41" s="114"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="81"/>
+      <c r="M41" s="81"/>
+      <c r="N41" s="81"/>
+      <c r="O41" s="82"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D42" s="39"/>
@@ -5601,22 +5620,58 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="F38:O38"/>
-    <mergeCell ref="F39:O39"/>
-    <mergeCell ref="F40:O40"/>
-    <mergeCell ref="F41:O41"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="F35:O35"/>
-    <mergeCell ref="F36:O36"/>
-    <mergeCell ref="F37:O37"/>
-    <mergeCell ref="F34:O34"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:O11"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="F10:O10"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F4:O4"/>
+    <mergeCell ref="F5:O5"/>
+    <mergeCell ref="F25:O25"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:O18"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:O12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:O13"/>
+    <mergeCell ref="F14:O14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:O16"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:O20"/>
+    <mergeCell ref="F29:O29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:O30"/>
+    <mergeCell ref="F28:O28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:O26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:O27"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:O15"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:O23"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:O17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:O19"/>
+    <mergeCell ref="F6:O6"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="F8:O8"/>
+    <mergeCell ref="F9:O9"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="B32:D33"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="F24:O24"/>
@@ -5633,58 +5688,22 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="F31:O31"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:O15"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:O23"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:O17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:O19"/>
-    <mergeCell ref="F6:O6"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="F8:O8"/>
-    <mergeCell ref="F9:O9"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F29:O29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:O30"/>
-    <mergeCell ref="F28:O28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:O26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:O27"/>
-    <mergeCell ref="F25:O25"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:O18"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:O12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:O13"/>
-    <mergeCell ref="F14:O14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:O16"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:O20"/>
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:O11"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F3:O3"/>
-    <mergeCell ref="F10:O10"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F4:O4"/>
-    <mergeCell ref="F5:O5"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="F38:O38"/>
+    <mergeCell ref="F39:O39"/>
+    <mergeCell ref="F40:O40"/>
+    <mergeCell ref="F41:O41"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="F35:O35"/>
+    <mergeCell ref="F36:O36"/>
+    <mergeCell ref="F37:O37"/>
+    <mergeCell ref="F34:O34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
